--- a/metadata/raw_sample_metadata.xlsx
+++ b/metadata/raw_sample_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f19994348ecc0c8c/Documents/GitHub/uwa_darwins_daisy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C06380-6BF2-4D91-BC0D-30C302D33CB7}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6AD697-5731-4E35-B686-31E4EB9A28AD}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 Sample Overview" sheetId="1" r:id="rId1"/>
@@ -933,27 +933,27 @@
   <dimension ref="A1:P746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1"/>
-    <col min="5" max="6" width="21.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="25.1796875" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" customWidth="1"/>
-    <col min="12" max="12" width="72.453125" customWidth="1"/>
-    <col min="13" max="16" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="5" max="6" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="72.42578125" customWidth="1"/>
+    <col min="13" max="16" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>48</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>82</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>86</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>89</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>93</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>127</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>134</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>130</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>142</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>145</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>74</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>62</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>67</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>116</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>70</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>101</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>36</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>105</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
     </row>
-    <row r="23" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>150</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
     </row>
-    <row r="25" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>153</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>122</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
     </row>
-    <row r="28" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>124</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>97</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
     </row>
-    <row r="31" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>112</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>77</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>43</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>137</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>53</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
     </row>
-    <row r="36" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>58</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2458,7 +2458,7 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
     </row>
-    <row r="38" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2476,7 +2476,7 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2494,7 +2494,7 @@
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
     </row>
-    <row r="40" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2512,7 +2512,7 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
     </row>
-    <row r="41" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2530,7 +2530,7 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
     </row>
-    <row r="42" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2548,7 +2548,7 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2566,7 +2566,7 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
     </row>
-    <row r="44" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2584,7 +2584,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2602,7 +2602,7 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="46" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2620,7 +2620,7 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2638,7 +2638,7 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2656,7 +2656,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2674,7 +2674,7 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2692,7 +2692,7 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2710,7 +2710,7 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2728,7 +2728,7 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2746,7 +2746,7 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2764,7 +2764,7 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2782,7 +2782,7 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2800,7 +2800,7 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2818,7 +2818,7 @@
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
     </row>
-    <row r="58" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2836,7 +2836,7 @@
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
     </row>
-    <row r="59" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2854,7 +2854,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
     </row>
-    <row r="60" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2872,7 +2872,7 @@
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
     </row>
-    <row r="61" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2890,7 +2890,7 @@
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
     </row>
-    <row r="62" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2908,7 +2908,7 @@
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
     </row>
-    <row r="63" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2926,7 +2926,7 @@
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
     </row>
-    <row r="64" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2944,7 +2944,7 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
     </row>
-    <row r="65" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2962,7 +2962,7 @@
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
     </row>
-    <row r="66" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2980,7 +2980,7 @@
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
     </row>
-    <row r="67" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2998,7 +2998,7 @@
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3016,7 +3016,7 @@
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
     </row>
-    <row r="69" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3034,7 +3034,7 @@
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
     </row>
-    <row r="70" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3052,7 +3052,7 @@
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
     </row>
-    <row r="71" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3070,7 +3070,7 @@
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
     </row>
-    <row r="72" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3088,7 +3088,7 @@
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
     </row>
-    <row r="73" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3106,7 +3106,7 @@
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
     </row>
-    <row r="74" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3124,7 +3124,7 @@
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
     </row>
-    <row r="75" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3142,7 +3142,7 @@
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
     </row>
-    <row r="76" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -3160,7 +3160,7 @@
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
     </row>
-    <row r="77" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -3178,7 +3178,7 @@
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
     </row>
-    <row r="78" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3196,7 +3196,7 @@
       <c r="O78" s="14"/>
       <c r="P78" s="14"/>
     </row>
-    <row r="79" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3214,7 +3214,7 @@
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
     </row>
-    <row r="80" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3232,7 +3232,7 @@
       <c r="O80" s="14"/>
       <c r="P80" s="14"/>
     </row>
-    <row r="81" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3250,7 +3250,7 @@
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
     </row>
-    <row r="82" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3268,7 +3268,7 @@
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
     </row>
-    <row r="83" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3286,7 +3286,7 @@
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
     </row>
-    <row r="84" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -3304,7 +3304,7 @@
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
     </row>
-    <row r="85" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -3322,7 +3322,7 @@
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
     </row>
-    <row r="86" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3340,7 +3340,7 @@
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
     </row>
-    <row r="87" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3358,7 +3358,7 @@
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
     </row>
-    <row r="88" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3376,7 +3376,7 @@
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
     </row>
-    <row r="89" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3394,7 +3394,7 @@
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
     </row>
-    <row r="90" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3412,7 +3412,7 @@
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
     </row>
-    <row r="91" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3430,7 +3430,7 @@
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
     </row>
-    <row r="92" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3448,7 +3448,7 @@
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
     </row>
-    <row r="93" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3466,7 +3466,7 @@
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
     </row>
-    <row r="94" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3484,7 +3484,7 @@
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
     </row>
-    <row r="95" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3502,7 +3502,7 @@
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
     </row>
-    <row r="96" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3520,7 +3520,7 @@
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
     </row>
-    <row r="97" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3538,7 +3538,7 @@
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
     </row>
-    <row r="98" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3556,7 +3556,7 @@
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
     </row>
-    <row r="99" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3574,7 +3574,7 @@
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
     </row>
-    <row r="100" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3592,7 +3592,7 @@
       <c r="O100" s="14"/>
       <c r="P100" s="14"/>
     </row>
-    <row r="101" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3610,7 +3610,7 @@
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
     </row>
-    <row r="102" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3628,7 +3628,7 @@
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
     </row>
-    <row r="103" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3646,7 +3646,7 @@
       <c r="O103" s="14"/>
       <c r="P103" s="14"/>
     </row>
-    <row r="104" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3664,7 +3664,7 @@
       <c r="O104" s="14"/>
       <c r="P104" s="14"/>
     </row>
-    <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3682,7 +3682,7 @@
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
     </row>
-    <row r="106" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3700,7 +3700,7 @@
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3718,7 +3718,7 @@
       <c r="O107" s="14"/>
       <c r="P107" s="14"/>
     </row>
-    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3736,7 +3736,7 @@
       <c r="O108" s="14"/>
       <c r="P108" s="14"/>
     </row>
-    <row r="109" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3754,7 +3754,7 @@
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
     </row>
-    <row r="110" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3772,7 +3772,7 @@
       <c r="O110" s="14"/>
       <c r="P110" s="14"/>
     </row>
-    <row r="111" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3790,7 +3790,7 @@
       <c r="O111" s="14"/>
       <c r="P111" s="14"/>
     </row>
-    <row r="112" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3808,7 +3808,7 @@
       <c r="O112" s="14"/>
       <c r="P112" s="14"/>
     </row>
-    <row r="113" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -3826,7 +3826,7 @@
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
     </row>
-    <row r="114" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -3844,7 +3844,7 @@
       <c r="O114" s="14"/>
       <c r="P114" s="14"/>
     </row>
-    <row r="115" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -3862,7 +3862,7 @@
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
     </row>
-    <row r="116" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -3880,7 +3880,7 @@
       <c r="O116" s="14"/>
       <c r="P116" s="14"/>
     </row>
-    <row r="117" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -3898,7 +3898,7 @@
       <c r="O117" s="14"/>
       <c r="P117" s="14"/>
     </row>
-    <row r="118" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -3916,7 +3916,7 @@
       <c r="O118" s="14"/>
       <c r="P118" s="14"/>
     </row>
-    <row r="119" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -3934,7 +3934,7 @@
       <c r="O119" s="14"/>
       <c r="P119" s="14"/>
     </row>
-    <row r="120" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -3952,7 +3952,7 @@
       <c r="O120" s="14"/>
       <c r="P120" s="14"/>
     </row>
-    <row r="121" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -3970,7 +3970,7 @@
       <c r="O121" s="14"/>
       <c r="P121" s="14"/>
     </row>
-    <row r="122" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3988,7 +3988,7 @@
       <c r="O122" s="14"/>
       <c r="P122" s="14"/>
     </row>
-    <row r="123" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -4006,7 +4006,7 @@
       <c r="O123" s="14"/>
       <c r="P123" s="14"/>
     </row>
-    <row r="124" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -4024,7 +4024,7 @@
       <c r="O124" s="14"/>
       <c r="P124" s="14"/>
     </row>
-    <row r="125" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -4042,7 +4042,7 @@
       <c r="O125" s="14"/>
       <c r="P125" s="14"/>
     </row>
-    <row r="126" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -4060,7 +4060,7 @@
       <c r="O126" s="14"/>
       <c r="P126" s="14"/>
     </row>
-    <row r="127" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -4078,7 +4078,7 @@
       <c r="O127" s="14"/>
       <c r="P127" s="14"/>
     </row>
-    <row r="128" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -4096,7 +4096,7 @@
       <c r="O128" s="14"/>
       <c r="P128" s="14"/>
     </row>
-    <row r="129" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -4114,7 +4114,7 @@
       <c r="O129" s="14"/>
       <c r="P129" s="14"/>
     </row>
-    <row r="130" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -4132,7 +4132,7 @@
       <c r="O130" s="14"/>
       <c r="P130" s="14"/>
     </row>
-    <row r="131" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4150,7 +4150,7 @@
       <c r="O131" s="14"/>
       <c r="P131" s="14"/>
     </row>
-    <row r="132" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -4168,7 +4168,7 @@
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
     </row>
-    <row r="133" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -4186,7 +4186,7 @@
       <c r="O133" s="14"/>
       <c r="P133" s="14"/>
     </row>
-    <row r="134" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4204,7 +4204,7 @@
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
     </row>
-    <row r="135" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -4222,7 +4222,7 @@
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
     </row>
-    <row r="136" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4240,7 +4240,7 @@
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
     </row>
-    <row r="137" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4258,7 +4258,7 @@
       <c r="O137" s="14"/>
       <c r="P137" s="14"/>
     </row>
-    <row r="138" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4276,7 +4276,7 @@
       <c r="O138" s="14"/>
       <c r="P138" s="14"/>
     </row>
-    <row r="139" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4294,7 +4294,7 @@
       <c r="O139" s="14"/>
       <c r="P139" s="14"/>
     </row>
-    <row r="140" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4312,7 +4312,7 @@
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
     </row>
-    <row r="141" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4330,7 +4330,7 @@
       <c r="O141" s="14"/>
       <c r="P141" s="14"/>
     </row>
-    <row r="142" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4348,7 +4348,7 @@
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
     </row>
-    <row r="143" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4366,7 +4366,7 @@
       <c r="O143" s="14"/>
       <c r="P143" s="14"/>
     </row>
-    <row r="144" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4384,7 +4384,7 @@
       <c r="O144" s="14"/>
       <c r="P144" s="14"/>
     </row>
-    <row r="145" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -4402,7 +4402,7 @@
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
     </row>
-    <row r="146" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -4420,7 +4420,7 @@
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
     </row>
-    <row r="147" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -4438,7 +4438,7 @@
       <c r="O147" s="14"/>
       <c r="P147" s="14"/>
     </row>
-    <row r="148" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -4456,7 +4456,7 @@
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
     </row>
-    <row r="149" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -4474,7 +4474,7 @@
       <c r="O149" s="14"/>
       <c r="P149" s="14"/>
     </row>
-    <row r="150" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -4492,7 +4492,7 @@
       <c r="O150" s="14"/>
       <c r="P150" s="14"/>
     </row>
-    <row r="151" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -4510,7 +4510,7 @@
       <c r="O151" s="14"/>
       <c r="P151" s="14"/>
     </row>
-    <row r="152" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -4528,7 +4528,7 @@
       <c r="O152" s="14"/>
       <c r="P152" s="14"/>
     </row>
-    <row r="153" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -4546,7 +4546,7 @@
       <c r="O153" s="14"/>
       <c r="P153" s="14"/>
     </row>
-    <row r="154" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4564,7 +4564,7 @@
       <c r="O154" s="14"/>
       <c r="P154" s="14"/>
     </row>
-    <row r="155" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -4582,7 +4582,7 @@
       <c r="O155" s="14"/>
       <c r="P155" s="14"/>
     </row>
-    <row r="156" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -4600,7 +4600,7 @@
       <c r="O156" s="14"/>
       <c r="P156" s="14"/>
     </row>
-    <row r="157" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -4618,7 +4618,7 @@
       <c r="O157" s="14"/>
       <c r="P157" s="14"/>
     </row>
-    <row r="158" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -4636,7 +4636,7 @@
       <c r="O158" s="14"/>
       <c r="P158" s="14"/>
     </row>
-    <row r="159" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -4654,7 +4654,7 @@
       <c r="O159" s="14"/>
       <c r="P159" s="14"/>
     </row>
-    <row r="160" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -4672,7 +4672,7 @@
       <c r="O160" s="14"/>
       <c r="P160" s="14"/>
     </row>
-    <row r="161" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -4690,7 +4690,7 @@
       <c r="O161" s="14"/>
       <c r="P161" s="14"/>
     </row>
-    <row r="162" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -4708,7 +4708,7 @@
       <c r="O162" s="14"/>
       <c r="P162" s="14"/>
     </row>
-    <row r="163" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -4726,7 +4726,7 @@
       <c r="O163" s="14"/>
       <c r="P163" s="14"/>
     </row>
-    <row r="164" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -4744,7 +4744,7 @@
       <c r="O164" s="14"/>
       <c r="P164" s="14"/>
     </row>
-    <row r="165" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -4762,7 +4762,7 @@
       <c r="O165" s="14"/>
       <c r="P165" s="14"/>
     </row>
-    <row r="166" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -4780,7 +4780,7 @@
       <c r="O166" s="14"/>
       <c r="P166" s="14"/>
     </row>
-    <row r="167" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -4798,7 +4798,7 @@
       <c r="O167" s="14"/>
       <c r="P167" s="14"/>
     </row>
-    <row r="168" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -4816,7 +4816,7 @@
       <c r="O168" s="14"/>
       <c r="P168" s="14"/>
     </row>
-    <row r="169" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -4834,7 +4834,7 @@
       <c r="O169" s="14"/>
       <c r="P169" s="14"/>
     </row>
-    <row r="170" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -4852,7 +4852,7 @@
       <c r="O170" s="14"/>
       <c r="P170" s="14"/>
     </row>
-    <row r="171" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -4870,7 +4870,7 @@
       <c r="O171" s="14"/>
       <c r="P171" s="14"/>
     </row>
-    <row r="172" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -4888,7 +4888,7 @@
       <c r="O172" s="14"/>
       <c r="P172" s="14"/>
     </row>
-    <row r="173" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -4906,7 +4906,7 @@
       <c r="O173" s="14"/>
       <c r="P173" s="14"/>
     </row>
-    <row r="174" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -4924,7 +4924,7 @@
       <c r="O174" s="14"/>
       <c r="P174" s="14"/>
     </row>
-    <row r="175" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -4942,7 +4942,7 @@
       <c r="O175" s="14"/>
       <c r="P175" s="14"/>
     </row>
-    <row r="176" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -4960,7 +4960,7 @@
       <c r="O176" s="14"/>
       <c r="P176" s="14"/>
     </row>
-    <row r="177" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -4978,7 +4978,7 @@
       <c r="O177" s="14"/>
       <c r="P177" s="14"/>
     </row>
-    <row r="178" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -4996,7 +4996,7 @@
       <c r="O178" s="14"/>
       <c r="P178" s="14"/>
     </row>
-    <row r="179" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -5014,7 +5014,7 @@
       <c r="O179" s="14"/>
       <c r="P179" s="14"/>
     </row>
-    <row r="180" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -5032,7 +5032,7 @@
       <c r="O180" s="14"/>
       <c r="P180" s="14"/>
     </row>
-    <row r="181" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -5050,7 +5050,7 @@
       <c r="O181" s="14"/>
       <c r="P181" s="14"/>
     </row>
-    <row r="182" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -5068,7 +5068,7 @@
       <c r="O182" s="14"/>
       <c r="P182" s="14"/>
     </row>
-    <row r="183" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -5086,7 +5086,7 @@
       <c r="O183" s="14"/>
       <c r="P183" s="14"/>
     </row>
-    <row r="184" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -5104,7 +5104,7 @@
       <c r="O184" s="14"/>
       <c r="P184" s="14"/>
     </row>
-    <row r="185" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -5122,7 +5122,7 @@
       <c r="O185" s="14"/>
       <c r="P185" s="14"/>
     </row>
-    <row r="186" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -5140,7 +5140,7 @@
       <c r="O186" s="14"/>
       <c r="P186" s="14"/>
     </row>
-    <row r="187" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -5158,7 +5158,7 @@
       <c r="O187" s="14"/>
       <c r="P187" s="14"/>
     </row>
-    <row r="188" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -5176,7 +5176,7 @@
       <c r="O188" s="14"/>
       <c r="P188" s="14"/>
     </row>
-    <row r="189" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -5194,7 +5194,7 @@
       <c r="O189" s="14"/>
       <c r="P189" s="14"/>
     </row>
-    <row r="190" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -5212,7 +5212,7 @@
       <c r="O190" s="14"/>
       <c r="P190" s="14"/>
     </row>
-    <row r="191" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -5230,7 +5230,7 @@
       <c r="O191" s="14"/>
       <c r="P191" s="14"/>
     </row>
-    <row r="192" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -5248,7 +5248,7 @@
       <c r="O192" s="14"/>
       <c r="P192" s="14"/>
     </row>
-    <row r="193" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -5266,7 +5266,7 @@
       <c r="O193" s="14"/>
       <c r="P193" s="14"/>
     </row>
-    <row r="194" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -5284,7 +5284,7 @@
       <c r="O194" s="14"/>
       <c r="P194" s="14"/>
     </row>
-    <row r="195" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -5302,7 +5302,7 @@
       <c r="O195" s="14"/>
       <c r="P195" s="14"/>
     </row>
-    <row r="196" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -5320,7 +5320,7 @@
       <c r="O196" s="14"/>
       <c r="P196" s="14"/>
     </row>
-    <row r="197" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -5338,7 +5338,7 @@
       <c r="O197" s="14"/>
       <c r="P197" s="14"/>
     </row>
-    <row r="198" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -5356,7 +5356,7 @@
       <c r="O198" s="14"/>
       <c r="P198" s="14"/>
     </row>
-    <row r="199" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -5374,7 +5374,7 @@
       <c r="O199" s="14"/>
       <c r="P199" s="14"/>
     </row>
-    <row r="200" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -5392,7 +5392,7 @@
       <c r="O200" s="14"/>
       <c r="P200" s="14"/>
     </row>
-    <row r="201" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -5410,7 +5410,7 @@
       <c r="O201" s="14"/>
       <c r="P201" s="14"/>
     </row>
-    <row r="202" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -5428,7 +5428,7 @@
       <c r="O202" s="14"/>
       <c r="P202" s="14"/>
     </row>
-    <row r="203" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -5446,7 +5446,7 @@
       <c r="O203" s="14"/>
       <c r="P203" s="14"/>
     </row>
-    <row r="204" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -5464,7 +5464,7 @@
       <c r="O204" s="14"/>
       <c r="P204" s="14"/>
     </row>
-    <row r="205" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -5482,7 +5482,7 @@
       <c r="O205" s="14"/>
       <c r="P205" s="14"/>
     </row>
-    <row r="206" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -5500,7 +5500,7 @@
       <c r="O206" s="14"/>
       <c r="P206" s="14"/>
     </row>
-    <row r="207" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -5518,7 +5518,7 @@
       <c r="O207" s="14"/>
       <c r="P207" s="14"/>
     </row>
-    <row r="208" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -5536,7 +5536,7 @@
       <c r="O208" s="14"/>
       <c r="P208" s="14"/>
     </row>
-    <row r="209" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -5554,7 +5554,7 @@
       <c r="O209" s="14"/>
       <c r="P209" s="14"/>
     </row>
-    <row r="210" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -5572,7 +5572,7 @@
       <c r="O210" s="14"/>
       <c r="P210" s="14"/>
     </row>
-    <row r="211" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -5590,7 +5590,7 @@
       <c r="O211" s="14"/>
       <c r="P211" s="14"/>
     </row>
-    <row r="212" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -5608,7 +5608,7 @@
       <c r="O212" s="14"/>
       <c r="P212" s="14"/>
     </row>
-    <row r="213" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -5626,7 +5626,7 @@
       <c r="O213" s="14"/>
       <c r="P213" s="14"/>
     </row>
-    <row r="214" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -5644,7 +5644,7 @@
       <c r="O214" s="14"/>
       <c r="P214" s="14"/>
     </row>
-    <row r="215" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -5662,7 +5662,7 @@
       <c r="O215" s="14"/>
       <c r="P215" s="14"/>
     </row>
-    <row r="216" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -5680,7 +5680,7 @@
       <c r="O216" s="14"/>
       <c r="P216" s="14"/>
     </row>
-    <row r="217" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -5698,7 +5698,7 @@
       <c r="O217" s="14"/>
       <c r="P217" s="14"/>
     </row>
-    <row r="218" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -5716,7 +5716,7 @@
       <c r="O218" s="14"/>
       <c r="P218" s="14"/>
     </row>
-    <row r="219" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -5734,7 +5734,7 @@
       <c r="O219" s="14"/>
       <c r="P219" s="14"/>
     </row>
-    <row r="220" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -5752,7 +5752,7 @@
       <c r="O220" s="14"/>
       <c r="P220" s="14"/>
     </row>
-    <row r="221" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -5770,7 +5770,7 @@
       <c r="O221" s="14"/>
       <c r="P221" s="14"/>
     </row>
-    <row r="222" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -5788,7 +5788,7 @@
       <c r="O222" s="14"/>
       <c r="P222" s="14"/>
     </row>
-    <row r="223" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -5806,7 +5806,7 @@
       <c r="O223" s="14"/>
       <c r="P223" s="14"/>
     </row>
-    <row r="224" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -5824,7 +5824,7 @@
       <c r="O224" s="14"/>
       <c r="P224" s="14"/>
     </row>
-    <row r="225" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -5842,7 +5842,7 @@
       <c r="O225" s="14"/>
       <c r="P225" s="14"/>
     </row>
-    <row r="226" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -5860,7 +5860,7 @@
       <c r="O226" s="14"/>
       <c r="P226" s="14"/>
     </row>
-    <row r="227" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -5878,7 +5878,7 @@
       <c r="O227" s="14"/>
       <c r="P227" s="14"/>
     </row>
-    <row r="228" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -5896,7 +5896,7 @@
       <c r="O228" s="14"/>
       <c r="P228" s="14"/>
     </row>
-    <row r="229" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -5914,7 +5914,7 @@
       <c r="O229" s="14"/>
       <c r="P229" s="14"/>
     </row>
-    <row r="230" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -5932,7 +5932,7 @@
       <c r="O230" s="14"/>
       <c r="P230" s="14"/>
     </row>
-    <row r="231" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -5950,7 +5950,7 @@
       <c r="O231" s="14"/>
       <c r="P231" s="14"/>
     </row>
-    <row r="232" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -5968,7 +5968,7 @@
       <c r="O232" s="14"/>
       <c r="P232" s="14"/>
     </row>
-    <row r="233" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -5986,7 +5986,7 @@
       <c r="O233" s="14"/>
       <c r="P233" s="14"/>
     </row>
-    <row r="234" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -6004,7 +6004,7 @@
       <c r="O234" s="14"/>
       <c r="P234" s="14"/>
     </row>
-    <row r="235" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -6022,7 +6022,7 @@
       <c r="O235" s="14"/>
       <c r="P235" s="14"/>
     </row>
-    <row r="236" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -6040,7 +6040,7 @@
       <c r="O236" s="14"/>
       <c r="P236" s="14"/>
     </row>
-    <row r="237" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -6058,7 +6058,7 @@
       <c r="O237" s="14"/>
       <c r="P237" s="14"/>
     </row>
-    <row r="238" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -6076,7 +6076,7 @@
       <c r="O238" s="14"/>
       <c r="P238" s="14"/>
     </row>
-    <row r="239" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -6094,7 +6094,7 @@
       <c r="O239" s="14"/>
       <c r="P239" s="14"/>
     </row>
-    <row r="240" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -6112,7 +6112,7 @@
       <c r="O240" s="14"/>
       <c r="P240" s="14"/>
     </row>
-    <row r="241" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -6130,7 +6130,7 @@
       <c r="O241" s="14"/>
       <c r="P241" s="14"/>
     </row>
-    <row r="242" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -6148,7 +6148,7 @@
       <c r="O242" s="14"/>
       <c r="P242" s="14"/>
     </row>
-    <row r="243" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -6166,7 +6166,7 @@
       <c r="O243" s="14"/>
       <c r="P243" s="14"/>
     </row>
-    <row r="244" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -6184,7 +6184,7 @@
       <c r="O244" s="14"/>
       <c r="P244" s="14"/>
     </row>
-    <row r="245" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -6202,7 +6202,7 @@
       <c r="O245" s="14"/>
       <c r="P245" s="14"/>
     </row>
-    <row r="246" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -6220,7 +6220,7 @@
       <c r="O246" s="14"/>
       <c r="P246" s="14"/>
     </row>
-    <row r="247" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -6238,7 +6238,7 @@
       <c r="O247" s="14"/>
       <c r="P247" s="14"/>
     </row>
-    <row r="248" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -6256,7 +6256,7 @@
       <c r="O248" s="14"/>
       <c r="P248" s="14"/>
     </row>
-    <row r="249" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -6274,7 +6274,7 @@
       <c r="O249" s="14"/>
       <c r="P249" s="14"/>
     </row>
-    <row r="250" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -6292,7 +6292,7 @@
       <c r="O250" s="14"/>
       <c r="P250" s="14"/>
     </row>
-    <row r="251" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -6310,7 +6310,7 @@
       <c r="O251" s="14"/>
       <c r="P251" s="14"/>
     </row>
-    <row r="252" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -6328,7 +6328,7 @@
       <c r="O252" s="14"/>
       <c r="P252" s="14"/>
     </row>
-    <row r="253" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -6346,7 +6346,7 @@
       <c r="O253" s="14"/>
       <c r="P253" s="14"/>
     </row>
-    <row r="254" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -6364,7 +6364,7 @@
       <c r="O254" s="14"/>
       <c r="P254" s="14"/>
     </row>
-    <row r="255" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -6382,7 +6382,7 @@
       <c r="O255" s="14"/>
       <c r="P255" s="14"/>
     </row>
-    <row r="256" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -6400,7 +6400,7 @@
       <c r="O256" s="14"/>
       <c r="P256" s="14"/>
     </row>
-    <row r="257" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -6418,7 +6418,7 @@
       <c r="O257" s="14"/>
       <c r="P257" s="14"/>
     </row>
-    <row r="258" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -6436,7 +6436,7 @@
       <c r="O258" s="14"/>
       <c r="P258" s="14"/>
     </row>
-    <row r="259" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -6454,7 +6454,7 @@
       <c r="O259" s="14"/>
       <c r="P259" s="14"/>
     </row>
-    <row r="260" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -6472,7 +6472,7 @@
       <c r="O260" s="14"/>
       <c r="P260" s="14"/>
     </row>
-    <row r="261" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -6490,7 +6490,7 @@
       <c r="O261" s="14"/>
       <c r="P261" s="14"/>
     </row>
-    <row r="262" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -6508,7 +6508,7 @@
       <c r="O262" s="14"/>
       <c r="P262" s="14"/>
     </row>
-    <row r="263" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -6526,7 +6526,7 @@
       <c r="O263" s="14"/>
       <c r="P263" s="14"/>
     </row>
-    <row r="264" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -6544,7 +6544,7 @@
       <c r="O264" s="14"/>
       <c r="P264" s="14"/>
     </row>
-    <row r="265" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -6562,7 +6562,7 @@
       <c r="O265" s="14"/>
       <c r="P265" s="14"/>
     </row>
-    <row r="266" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -6580,7 +6580,7 @@
       <c r="O266" s="14"/>
       <c r="P266" s="14"/>
     </row>
-    <row r="267" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -6598,7 +6598,7 @@
       <c r="O267" s="14"/>
       <c r="P267" s="14"/>
     </row>
-    <row r="268" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -6616,7 +6616,7 @@
       <c r="O268" s="14"/>
       <c r="P268" s="14"/>
     </row>
-    <row r="269" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -6634,7 +6634,7 @@
       <c r="O269" s="14"/>
       <c r="P269" s="14"/>
     </row>
-    <row r="270" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -6652,7 +6652,7 @@
       <c r="O270" s="14"/>
       <c r="P270" s="14"/>
     </row>
-    <row r="271" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -6670,7 +6670,7 @@
       <c r="O271" s="14"/>
       <c r="P271" s="14"/>
     </row>
-    <row r="272" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -6688,7 +6688,7 @@
       <c r="O272" s="14"/>
       <c r="P272" s="14"/>
     </row>
-    <row r="273" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -6706,7 +6706,7 @@
       <c r="O273" s="14"/>
       <c r="P273" s="14"/>
     </row>
-    <row r="274" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -6724,7 +6724,7 @@
       <c r="O274" s="14"/>
       <c r="P274" s="14"/>
     </row>
-    <row r="275" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -6742,7 +6742,7 @@
       <c r="O275" s="14"/>
       <c r="P275" s="14"/>
     </row>
-    <row r="276" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -6760,7 +6760,7 @@
       <c r="O276" s="14"/>
       <c r="P276" s="14"/>
     </row>
-    <row r="277" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -6778,7 +6778,7 @@
       <c r="O277" s="14"/>
       <c r="P277" s="14"/>
     </row>
-    <row r="278" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -6796,7 +6796,7 @@
       <c r="O278" s="14"/>
       <c r="P278" s="14"/>
     </row>
-    <row r="279" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -6814,7 +6814,7 @@
       <c r="O279" s="14"/>
       <c r="P279" s="14"/>
     </row>
-    <row r="280" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -6832,7 +6832,7 @@
       <c r="O280" s="14"/>
       <c r="P280" s="14"/>
     </row>
-    <row r="281" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -6850,7 +6850,7 @@
       <c r="O281" s="14"/>
       <c r="P281" s="14"/>
     </row>
-    <row r="282" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -6868,7 +6868,7 @@
       <c r="O282" s="14"/>
       <c r="P282" s="14"/>
     </row>
-    <row r="283" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -6886,7 +6886,7 @@
       <c r="O283" s="14"/>
       <c r="P283" s="14"/>
     </row>
-    <row r="284" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -6904,7 +6904,7 @@
       <c r="O284" s="14"/>
       <c r="P284" s="14"/>
     </row>
-    <row r="285" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -6922,7 +6922,7 @@
       <c r="O285" s="14"/>
       <c r="P285" s="14"/>
     </row>
-    <row r="286" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -6940,7 +6940,7 @@
       <c r="O286" s="14"/>
       <c r="P286" s="14"/>
     </row>
-    <row r="287" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -6958,7 +6958,7 @@
       <c r="O287" s="14"/>
       <c r="P287" s="14"/>
     </row>
-    <row r="288" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -6976,7 +6976,7 @@
       <c r="O288" s="14"/>
       <c r="P288" s="14"/>
     </row>
-    <row r="289" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -6994,7 +6994,7 @@
       <c r="O289" s="14"/>
       <c r="P289" s="14"/>
     </row>
-    <row r="290" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -7012,7 +7012,7 @@
       <c r="O290" s="14"/>
       <c r="P290" s="14"/>
     </row>
-    <row r="291" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -7030,7 +7030,7 @@
       <c r="O291" s="14"/>
       <c r="P291" s="14"/>
     </row>
-    <row r="292" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -7048,7 +7048,7 @@
       <c r="O292" s="14"/>
       <c r="P292" s="14"/>
     </row>
-    <row r="293" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -7066,7 +7066,7 @@
       <c r="O293" s="14"/>
       <c r="P293" s="14"/>
     </row>
-    <row r="294" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -7084,7 +7084,7 @@
       <c r="O294" s="14"/>
       <c r="P294" s="14"/>
     </row>
-    <row r="295" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -7102,7 +7102,7 @@
       <c r="O295" s="14"/>
       <c r="P295" s="14"/>
     </row>
-    <row r="296" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -7120,7 +7120,7 @@
       <c r="O296" s="14"/>
       <c r="P296" s="14"/>
     </row>
-    <row r="297" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -7138,7 +7138,7 @@
       <c r="O297" s="14"/>
       <c r="P297" s="14"/>
     </row>
-    <row r="298" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -7156,7 +7156,7 @@
       <c r="O298" s="14"/>
       <c r="P298" s="14"/>
     </row>
-    <row r="299" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -7174,7 +7174,7 @@
       <c r="O299" s="14"/>
       <c r="P299" s="14"/>
     </row>
-    <row r="300" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -7192,7 +7192,7 @@
       <c r="O300" s="14"/>
       <c r="P300" s="14"/>
     </row>
-    <row r="301" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -7210,7 +7210,7 @@
       <c r="O301" s="14"/>
       <c r="P301" s="14"/>
     </row>
-    <row r="302" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -7228,7 +7228,7 @@
       <c r="O302" s="14"/>
       <c r="P302" s="14"/>
     </row>
-    <row r="303" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -7246,7 +7246,7 @@
       <c r="O303" s="14"/>
       <c r="P303" s="14"/>
     </row>
-    <row r="304" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -7264,7 +7264,7 @@
       <c r="O304" s="14"/>
       <c r="P304" s="14"/>
     </row>
-    <row r="305" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -7282,7 +7282,7 @@
       <c r="O305" s="14"/>
       <c r="P305" s="14"/>
     </row>
-    <row r="306" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -7300,7 +7300,7 @@
       <c r="O306" s="14"/>
       <c r="P306" s="14"/>
     </row>
-    <row r="307" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -7318,7 +7318,7 @@
       <c r="O307" s="14"/>
       <c r="P307" s="14"/>
     </row>
-    <row r="308" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -7336,7 +7336,7 @@
       <c r="O308" s="14"/>
       <c r="P308" s="14"/>
     </row>
-    <row r="309" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -7354,7 +7354,7 @@
       <c r="O309" s="14"/>
       <c r="P309" s="14"/>
     </row>
-    <row r="310" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -7372,7 +7372,7 @@
       <c r="O310" s="14"/>
       <c r="P310" s="14"/>
     </row>
-    <row r="311" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -7390,7 +7390,7 @@
       <c r="O311" s="14"/>
       <c r="P311" s="14"/>
     </row>
-    <row r="312" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -7408,7 +7408,7 @@
       <c r="O312" s="14"/>
       <c r="P312" s="14"/>
     </row>
-    <row r="313" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -7426,7 +7426,7 @@
       <c r="O313" s="14"/>
       <c r="P313" s="14"/>
     </row>
-    <row r="314" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -7444,7 +7444,7 @@
       <c r="O314" s="14"/>
       <c r="P314" s="14"/>
     </row>
-    <row r="315" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -7462,7 +7462,7 @@
       <c r="O315" s="14"/>
       <c r="P315" s="14"/>
     </row>
-    <row r="316" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -7480,7 +7480,7 @@
       <c r="O316" s="14"/>
       <c r="P316" s="14"/>
     </row>
-    <row r="317" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -7498,7 +7498,7 @@
       <c r="O317" s="14"/>
       <c r="P317" s="14"/>
     </row>
-    <row r="318" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -7516,7 +7516,7 @@
       <c r="O318" s="14"/>
       <c r="P318" s="14"/>
     </row>
-    <row r="319" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -7534,7 +7534,7 @@
       <c r="O319" s="14"/>
       <c r="P319" s="14"/>
     </row>
-    <row r="320" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -7552,7 +7552,7 @@
       <c r="O320" s="14"/>
       <c r="P320" s="14"/>
     </row>
-    <row r="321" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -7570,7 +7570,7 @@
       <c r="O321" s="14"/>
       <c r="P321" s="14"/>
     </row>
-    <row r="322" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -7588,7 +7588,7 @@
       <c r="O322" s="14"/>
       <c r="P322" s="14"/>
     </row>
-    <row r="323" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -7606,7 +7606,7 @@
       <c r="O323" s="14"/>
       <c r="P323" s="14"/>
     </row>
-    <row r="324" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -7624,7 +7624,7 @@
       <c r="O324" s="14"/>
       <c r="P324" s="14"/>
     </row>
-    <row r="325" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -7642,7 +7642,7 @@
       <c r="O325" s="14"/>
       <c r="P325" s="14"/>
     </row>
-    <row r="326" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -7660,7 +7660,7 @@
       <c r="O326" s="14"/>
       <c r="P326" s="14"/>
     </row>
-    <row r="327" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -7678,7 +7678,7 @@
       <c r="O327" s="14"/>
       <c r="P327" s="14"/>
     </row>
-    <row r="328" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -7696,7 +7696,7 @@
       <c r="O328" s="14"/>
       <c r="P328" s="14"/>
     </row>
-    <row r="329" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -7714,7 +7714,7 @@
       <c r="O329" s="14"/>
       <c r="P329" s="14"/>
     </row>
-    <row r="330" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -7732,7 +7732,7 @@
       <c r="O330" s="14"/>
       <c r="P330" s="14"/>
     </row>
-    <row r="331" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -7750,7 +7750,7 @@
       <c r="O331" s="14"/>
       <c r="P331" s="14"/>
     </row>
-    <row r="332" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -7768,7 +7768,7 @@
       <c r="O332" s="14"/>
       <c r="P332" s="14"/>
     </row>
-    <row r="333" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -7786,7 +7786,7 @@
       <c r="O333" s="14"/>
       <c r="P333" s="14"/>
     </row>
-    <row r="334" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -7804,7 +7804,7 @@
       <c r="O334" s="14"/>
       <c r="P334" s="14"/>
     </row>
-    <row r="335" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -7822,7 +7822,7 @@
       <c r="O335" s="14"/>
       <c r="P335" s="14"/>
     </row>
-    <row r="336" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -7840,7 +7840,7 @@
       <c r="O336" s="14"/>
       <c r="P336" s="14"/>
     </row>
-    <row r="337" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -7858,7 +7858,7 @@
       <c r="O337" s="14"/>
       <c r="P337" s="14"/>
     </row>
-    <row r="338" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -7876,7 +7876,7 @@
       <c r="O338" s="14"/>
       <c r="P338" s="14"/>
     </row>
-    <row r="339" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -7894,7 +7894,7 @@
       <c r="O339" s="14"/>
       <c r="P339" s="14"/>
     </row>
-    <row r="340" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -7912,7 +7912,7 @@
       <c r="O340" s="14"/>
       <c r="P340" s="14"/>
     </row>
-    <row r="341" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -7930,7 +7930,7 @@
       <c r="O341" s="14"/>
       <c r="P341" s="14"/>
     </row>
-    <row r="342" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -7948,7 +7948,7 @@
       <c r="O342" s="14"/>
       <c r="P342" s="14"/>
     </row>
-    <row r="343" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="8"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -7966,7 +7966,7 @@
       <c r="O343" s="14"/>
       <c r="P343" s="14"/>
     </row>
-    <row r="344" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -7984,7 +7984,7 @@
       <c r="O344" s="14"/>
       <c r="P344" s="14"/>
     </row>
-    <row r="345" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -8002,7 +8002,7 @@
       <c r="O345" s="14"/>
       <c r="P345" s="14"/>
     </row>
-    <row r="346" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -8020,7 +8020,7 @@
       <c r="O346" s="14"/>
       <c r="P346" s="14"/>
     </row>
-    <row r="347" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -8038,7 +8038,7 @@
       <c r="O347" s="14"/>
       <c r="P347" s="14"/>
     </row>
-    <row r="348" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -8056,7 +8056,7 @@
       <c r="O348" s="14"/>
       <c r="P348" s="14"/>
     </row>
-    <row r="349" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -8074,7 +8074,7 @@
       <c r="O349" s="14"/>
       <c r="P349" s="14"/>
     </row>
-    <row r="350" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -8092,7 +8092,7 @@
       <c r="O350" s="14"/>
       <c r="P350" s="14"/>
     </row>
-    <row r="351" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -8110,7 +8110,7 @@
       <c r="O351" s="14"/>
       <c r="P351" s="14"/>
     </row>
-    <row r="352" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -8128,7 +8128,7 @@
       <c r="O352" s="14"/>
       <c r="P352" s="14"/>
     </row>
-    <row r="353" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -8146,7 +8146,7 @@
       <c r="O353" s="14"/>
       <c r="P353" s="14"/>
     </row>
-    <row r="354" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -8164,7 +8164,7 @@
       <c r="O354" s="14"/>
       <c r="P354" s="14"/>
     </row>
-    <row r="355" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -8182,7 +8182,7 @@
       <c r="O355" s="14"/>
       <c r="P355" s="14"/>
     </row>
-    <row r="356" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -8200,7 +8200,7 @@
       <c r="O356" s="14"/>
       <c r="P356" s="14"/>
     </row>
-    <row r="357" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -8218,7 +8218,7 @@
       <c r="O357" s="14"/>
       <c r="P357" s="14"/>
     </row>
-    <row r="358" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -8236,7 +8236,7 @@
       <c r="O358" s="14"/>
       <c r="P358" s="14"/>
     </row>
-    <row r="359" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -8254,7 +8254,7 @@
       <c r="O359" s="14"/>
       <c r="P359" s="14"/>
     </row>
-    <row r="360" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -8272,7 +8272,7 @@
       <c r="O360" s="14"/>
       <c r="P360" s="14"/>
     </row>
-    <row r="361" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -8290,7 +8290,7 @@
       <c r="O361" s="14"/>
       <c r="P361" s="14"/>
     </row>
-    <row r="362" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="8"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -8308,7 +8308,7 @@
       <c r="O362" s="14"/>
       <c r="P362" s="14"/>
     </row>
-    <row r="363" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -8326,7 +8326,7 @@
       <c r="O363" s="14"/>
       <c r="P363" s="14"/>
     </row>
-    <row r="364" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -8344,7 +8344,7 @@
       <c r="O364" s="14"/>
       <c r="P364" s="14"/>
     </row>
-    <row r="365" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -8362,7 +8362,7 @@
       <c r="O365" s="14"/>
       <c r="P365" s="14"/>
     </row>
-    <row r="366" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -8380,7 +8380,7 @@
       <c r="O366" s="14"/>
       <c r="P366" s="14"/>
     </row>
-    <row r="367" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -8398,7 +8398,7 @@
       <c r="O367" s="14"/>
       <c r="P367" s="14"/>
     </row>
-    <row r="368" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -8416,7 +8416,7 @@
       <c r="O368" s="14"/>
       <c r="P368" s="14"/>
     </row>
-    <row r="369" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -8434,7 +8434,7 @@
       <c r="O369" s="14"/>
       <c r="P369" s="14"/>
     </row>
-    <row r="370" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -8452,7 +8452,7 @@
       <c r="O370" s="14"/>
       <c r="P370" s="14"/>
     </row>
-    <row r="371" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -8470,7 +8470,7 @@
       <c r="O371" s="14"/>
       <c r="P371" s="14"/>
     </row>
-    <row r="372" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -8488,7 +8488,7 @@
       <c r="O372" s="14"/>
       <c r="P372" s="14"/>
     </row>
-    <row r="373" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -8506,7 +8506,7 @@
       <c r="O373" s="14"/>
       <c r="P373" s="14"/>
     </row>
-    <row r="374" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -8524,7 +8524,7 @@
       <c r="O374" s="14"/>
       <c r="P374" s="14"/>
     </row>
-    <row r="375" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="8"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -8542,7 +8542,7 @@
       <c r="O375" s="14"/>
       <c r="P375" s="14"/>
     </row>
-    <row r="376" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -8560,7 +8560,7 @@
       <c r="O376" s="14"/>
       <c r="P376" s="14"/>
     </row>
-    <row r="377" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -8578,7 +8578,7 @@
       <c r="O377" s="14"/>
       <c r="P377" s="14"/>
     </row>
-    <row r="378" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -8596,7 +8596,7 @@
       <c r="O378" s="14"/>
       <c r="P378" s="14"/>
     </row>
-    <row r="379" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -8614,7 +8614,7 @@
       <c r="O379" s="14"/>
       <c r="P379" s="14"/>
     </row>
-    <row r="380" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -8632,7 +8632,7 @@
       <c r="O380" s="14"/>
       <c r="P380" s="14"/>
     </row>
-    <row r="381" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -8650,7 +8650,7 @@
       <c r="O381" s="14"/>
       <c r="P381" s="14"/>
     </row>
-    <row r="382" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -8668,7 +8668,7 @@
       <c r="O382" s="14"/>
       <c r="P382" s="14"/>
     </row>
-    <row r="383" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -8686,7 +8686,7 @@
       <c r="O383" s="14"/>
       <c r="P383" s="14"/>
     </row>
-    <row r="384" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -8704,7 +8704,7 @@
       <c r="O384" s="14"/>
       <c r="P384" s="14"/>
     </row>
-    <row r="385" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -8722,7 +8722,7 @@
       <c r="O385" s="14"/>
       <c r="P385" s="14"/>
     </row>
-    <row r="386" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -8740,7 +8740,7 @@
       <c r="O386" s="14"/>
       <c r="P386" s="14"/>
     </row>
-    <row r="387" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="8"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -8758,7 +8758,7 @@
       <c r="O387" s="14"/>
       <c r="P387" s="14"/>
     </row>
-    <row r="388" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -8776,7 +8776,7 @@
       <c r="O388" s="14"/>
       <c r="P388" s="14"/>
     </row>
-    <row r="389" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -8794,7 +8794,7 @@
       <c r="O389" s="14"/>
       <c r="P389" s="14"/>
     </row>
-    <row r="390" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -8812,7 +8812,7 @@
       <c r="O390" s="14"/>
       <c r="P390" s="14"/>
     </row>
-    <row r="391" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -8830,7 +8830,7 @@
       <c r="O391" s="14"/>
       <c r="P391" s="14"/>
     </row>
-    <row r="392" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -8848,7 +8848,7 @@
       <c r="O392" s="14"/>
       <c r="P392" s="14"/>
     </row>
-    <row r="393" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -8866,7 +8866,7 @@
       <c r="O393" s="14"/>
       <c r="P393" s="14"/>
     </row>
-    <row r="394" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -8884,7 +8884,7 @@
       <c r="O394" s="14"/>
       <c r="P394" s="14"/>
     </row>
-    <row r="395" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="8"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -8902,7 +8902,7 @@
       <c r="O395" s="14"/>
       <c r="P395" s="14"/>
     </row>
-    <row r="396" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" s="8"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -8920,7 +8920,7 @@
       <c r="O396" s="14"/>
       <c r="P396" s="14"/>
     </row>
-    <row r="397" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="8"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -8938,7 +8938,7 @@
       <c r="O397" s="14"/>
       <c r="P397" s="14"/>
     </row>
-    <row r="398" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" s="8"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -8956,7 +8956,7 @@
       <c r="O398" s="14"/>
       <c r="P398" s="14"/>
     </row>
-    <row r="399" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="8"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -8974,7 +8974,7 @@
       <c r="O399" s="14"/>
       <c r="P399" s="14"/>
     </row>
-    <row r="400" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" s="8"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -8992,7 +8992,7 @@
       <c r="O400" s="14"/>
       <c r="P400" s="14"/>
     </row>
-    <row r="401" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" s="8"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -9010,7 +9010,7 @@
       <c r="O401" s="14"/>
       <c r="P401" s="14"/>
     </row>
-    <row r="402" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" s="8"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -9028,7 +9028,7 @@
       <c r="O402" s="14"/>
       <c r="P402" s="14"/>
     </row>
-    <row r="403" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="4"/>
       <c r="C403" s="5"/>
@@ -9046,7 +9046,7 @@
       <c r="O403" s="14"/>
       <c r="P403" s="14"/>
     </row>
-    <row r="404" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="4"/>
       <c r="C404" s="10"/>
@@ -9064,7 +9064,7 @@
       <c r="O404" s="14"/>
       <c r="P404" s="14"/>
     </row>
-    <row r="405" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="4"/>
       <c r="C405" s="5"/>
@@ -9082,7 +9082,7 @@
       <c r="O405" s="14"/>
       <c r="P405" s="14"/>
     </row>
-    <row r="406" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="4"/>
       <c r="C406" s="10"/>
@@ -9100,7 +9100,7 @@
       <c r="O406" s="14"/>
       <c r="P406" s="14"/>
     </row>
-    <row r="407" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="4"/>
       <c r="C407" s="5"/>
@@ -9118,7 +9118,7 @@
       <c r="O407" s="14"/>
       <c r="P407" s="14"/>
     </row>
-    <row r="408" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="4"/>
       <c r="C408" s="5"/>
@@ -9136,7 +9136,7 @@
       <c r="O408" s="14"/>
       <c r="P408" s="14"/>
     </row>
-    <row r="409" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="4"/>
       <c r="C409" s="10"/>
@@ -9154,7 +9154,7 @@
       <c r="O409" s="14"/>
       <c r="P409" s="14"/>
     </row>
-    <row r="410" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="4"/>
       <c r="C410" s="5"/>
@@ -9172,1348 +9172,1348 @@
       <c r="O410" s="14"/>
       <c r="P410" s="14"/>
     </row>
-    <row r="411" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I411" s="14"/>
       <c r="J411" s="14"/>
       <c r="K411" s="17"/>
     </row>
-    <row r="412" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I412" s="14"/>
       <c r="J412" s="14"/>
     </row>
-    <row r="413" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I413" s="14"/>
       <c r="J413" s="14"/>
     </row>
-    <row r="414" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I414" s="14"/>
       <c r="J414" s="14"/>
     </row>
-    <row r="415" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I415" s="14"/>
       <c r="J415" s="14"/>
     </row>
-    <row r="416" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I416" s="14"/>
       <c r="J416" s="14"/>
     </row>
-    <row r="417" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I417" s="14"/>
       <c r="J417" s="14"/>
     </row>
-    <row r="418" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I418" s="14"/>
       <c r="J418" s="14"/>
     </row>
-    <row r="419" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I419" s="14"/>
       <c r="J419" s="14"/>
     </row>
-    <row r="420" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I420" s="14"/>
       <c r="J420" s="14"/>
     </row>
-    <row r="421" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I421" s="14"/>
       <c r="J421" s="14"/>
     </row>
-    <row r="422" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I422" s="14"/>
       <c r="J422" s="14"/>
     </row>
-    <row r="423" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I423" s="14"/>
       <c r="J423" s="14"/>
     </row>
-    <row r="424" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I424" s="14"/>
       <c r="J424" s="14"/>
     </row>
-    <row r="425" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I425" s="14"/>
       <c r="J425" s="14"/>
     </row>
-    <row r="426" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I426" s="14"/>
       <c r="J426" s="14"/>
     </row>
-    <row r="427" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I427" s="14"/>
       <c r="J427" s="14"/>
     </row>
-    <row r="428" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I428" s="14"/>
       <c r="J428" s="14"/>
     </row>
-    <row r="429" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I429" s="14"/>
       <c r="J429" s="14"/>
     </row>
-    <row r="430" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I430" s="14"/>
       <c r="J430" s="14"/>
     </row>
-    <row r="431" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I431" s="14"/>
       <c r="J431" s="14"/>
     </row>
-    <row r="432" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I432" s="14"/>
       <c r="J432" s="14"/>
     </row>
-    <row r="433" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I433" s="14"/>
       <c r="J433" s="14"/>
     </row>
-    <row r="434" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I434" s="14"/>
       <c r="J434" s="14"/>
     </row>
-    <row r="435" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I435" s="14"/>
       <c r="J435" s="14"/>
     </row>
-    <row r="436" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I436" s="14"/>
       <c r="J436" s="14"/>
     </row>
-    <row r="437" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I437" s="14"/>
       <c r="J437" s="14"/>
     </row>
-    <row r="438" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I438" s="14"/>
       <c r="J438" s="14"/>
     </row>
-    <row r="439" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I439" s="14"/>
       <c r="J439" s="14"/>
     </row>
-    <row r="440" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I440" s="14"/>
       <c r="J440" s="14"/>
     </row>
-    <row r="441" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I441" s="14"/>
       <c r="J441" s="14"/>
     </row>
-    <row r="442" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I442" s="14"/>
       <c r="J442" s="14"/>
     </row>
-    <row r="443" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I443" s="14"/>
       <c r="J443" s="14"/>
     </row>
-    <row r="444" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I444" s="14"/>
       <c r="J444" s="14"/>
     </row>
-    <row r="445" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I445" s="14"/>
       <c r="J445" s="14"/>
     </row>
-    <row r="446" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I446" s="14"/>
       <c r="J446" s="14"/>
     </row>
-    <row r="447" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I447" s="14"/>
       <c r="J447" s="14"/>
     </row>
-    <row r="448" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I448" s="14"/>
       <c r="J448" s="14"/>
     </row>
-    <row r="449" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I449" s="14"/>
       <c r="J449" s="14"/>
     </row>
-    <row r="450" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I450" s="14"/>
       <c r="J450" s="14"/>
     </row>
-    <row r="451" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I451" s="14"/>
       <c r="J451" s="14"/>
     </row>
-    <row r="452" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I452" s="14"/>
       <c r="J452" s="14"/>
     </row>
-    <row r="453" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I453" s="14"/>
       <c r="J453" s="14"/>
     </row>
-    <row r="454" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I454" s="14"/>
       <c r="J454" s="14"/>
     </row>
-    <row r="455" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I455" s="14"/>
       <c r="J455" s="14"/>
     </row>
-    <row r="456" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I456" s="14"/>
       <c r="J456" s="14"/>
     </row>
-    <row r="457" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I457" s="14"/>
       <c r="J457" s="14"/>
     </row>
-    <row r="458" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I458" s="14"/>
       <c r="J458" s="14"/>
     </row>
-    <row r="459" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I459" s="14"/>
       <c r="J459" s="14"/>
     </row>
-    <row r="460" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I460" s="14"/>
       <c r="J460" s="14"/>
     </row>
-    <row r="461" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I461" s="14"/>
       <c r="J461" s="14"/>
     </row>
-    <row r="462" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I462" s="14"/>
       <c r="J462" s="14"/>
     </row>
-    <row r="463" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I463" s="14"/>
       <c r="J463" s="14"/>
     </row>
-    <row r="464" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I464" s="14"/>
       <c r="J464" s="14"/>
     </row>
-    <row r="465" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I465" s="14"/>
       <c r="J465" s="14"/>
     </row>
-    <row r="466" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I466" s="14"/>
       <c r="J466" s="14"/>
     </row>
-    <row r="467" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I467" s="14"/>
       <c r="J467" s="14"/>
     </row>
-    <row r="468" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I468" s="14"/>
       <c r="J468" s="14"/>
     </row>
-    <row r="469" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I469" s="14"/>
       <c r="J469" s="14"/>
     </row>
-    <row r="470" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I470" s="14"/>
       <c r="J470" s="14"/>
     </row>
-    <row r="471" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I471" s="14"/>
       <c r="J471" s="14"/>
     </row>
-    <row r="472" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I472" s="14"/>
       <c r="J472" s="14"/>
     </row>
-    <row r="473" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I473" s="14"/>
       <c r="J473" s="14"/>
     </row>
-    <row r="474" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I474" s="14"/>
       <c r="J474" s="14"/>
     </row>
-    <row r="475" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I475" s="14"/>
       <c r="J475" s="14"/>
     </row>
-    <row r="476" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I476" s="14"/>
       <c r="J476" s="14"/>
     </row>
-    <row r="477" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I477" s="14"/>
       <c r="J477" s="14"/>
     </row>
-    <row r="478" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I478" s="14"/>
       <c r="J478" s="14"/>
     </row>
-    <row r="479" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I479" s="14"/>
       <c r="J479" s="14"/>
     </row>
-    <row r="480" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I480" s="14"/>
       <c r="J480" s="14"/>
     </row>
-    <row r="481" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I481" s="14"/>
       <c r="J481" s="14"/>
     </row>
-    <row r="482" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I482" s="14"/>
       <c r="J482" s="14"/>
     </row>
-    <row r="483" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I483" s="14"/>
       <c r="J483" s="14"/>
     </row>
-    <row r="484" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I484" s="14"/>
       <c r="J484" s="14"/>
     </row>
-    <row r="485" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I485" s="14"/>
       <c r="J485" s="14"/>
     </row>
-    <row r="486" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I486" s="14"/>
       <c r="J486" s="14"/>
     </row>
-    <row r="487" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I487" s="14"/>
       <c r="J487" s="14"/>
     </row>
-    <row r="488" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I488" s="14"/>
       <c r="J488" s="14"/>
     </row>
-    <row r="489" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I489" s="14"/>
       <c r="J489" s="14"/>
     </row>
-    <row r="490" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I490" s="14"/>
       <c r="J490" s="14"/>
     </row>
-    <row r="491" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I491" s="14"/>
       <c r="J491" s="14"/>
     </row>
-    <row r="492" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I492" s="14"/>
       <c r="J492" s="14"/>
     </row>
-    <row r="493" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I493" s="14"/>
       <c r="J493" s="14"/>
     </row>
-    <row r="494" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I494" s="14"/>
       <c r="J494" s="14"/>
     </row>
-    <row r="495" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I495" s="14"/>
       <c r="J495" s="14"/>
     </row>
-    <row r="496" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I496" s="14"/>
       <c r="J496" s="14"/>
     </row>
-    <row r="497" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I497" s="14"/>
       <c r="J497" s="14"/>
     </row>
-    <row r="498" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I498" s="14"/>
       <c r="J498" s="14"/>
     </row>
-    <row r="499" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I499" s="14"/>
       <c r="J499" s="14"/>
     </row>
-    <row r="500" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I500" s="14"/>
       <c r="J500" s="14"/>
     </row>
-    <row r="501" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I501" s="14"/>
       <c r="J501" s="14"/>
     </row>
-    <row r="502" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I502" s="14"/>
       <c r="J502" s="14"/>
     </row>
-    <row r="503" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I503" s="14"/>
       <c r="J503" s="14"/>
     </row>
-    <row r="504" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I504" s="14"/>
       <c r="J504" s="14"/>
     </row>
-    <row r="505" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I505" s="14"/>
       <c r="J505" s="14"/>
     </row>
-    <row r="506" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I506" s="14"/>
       <c r="J506" s="14"/>
     </row>
-    <row r="507" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I507" s="14"/>
       <c r="J507" s="14"/>
     </row>
-    <row r="508" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I508" s="14"/>
       <c r="J508" s="14"/>
     </row>
-    <row r="509" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I509" s="14"/>
       <c r="J509" s="14"/>
     </row>
-    <row r="510" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I510" s="14"/>
       <c r="J510" s="14"/>
     </row>
-    <row r="511" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I511" s="14"/>
       <c r="J511" s="14"/>
     </row>
-    <row r="512" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I512" s="14"/>
       <c r="J512" s="14"/>
     </row>
-    <row r="513" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I513" s="14"/>
       <c r="J513" s="14"/>
     </row>
-    <row r="514" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I514" s="14"/>
       <c r="J514" s="14"/>
     </row>
-    <row r="515" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I515" s="14"/>
       <c r="J515" s="14"/>
     </row>
-    <row r="516" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I516" s="14"/>
       <c r="J516" s="14"/>
     </row>
-    <row r="517" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I517" s="14"/>
       <c r="J517" s="14"/>
     </row>
-    <row r="518" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I518" s="14"/>
       <c r="J518" s="14"/>
     </row>
-    <row r="519" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I519" s="14"/>
       <c r="J519" s="14"/>
     </row>
-    <row r="520" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I520" s="14"/>
       <c r="J520" s="14"/>
     </row>
-    <row r="521" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I521" s="14"/>
       <c r="J521" s="14"/>
     </row>
-    <row r="522" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I522" s="14"/>
       <c r="J522" s="14"/>
     </row>
-    <row r="523" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I523" s="14"/>
       <c r="J523" s="14"/>
     </row>
-    <row r="524" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I524" s="14"/>
       <c r="J524" s="14"/>
     </row>
-    <row r="525" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I525" s="14"/>
       <c r="J525" s="14"/>
     </row>
-    <row r="526" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I526" s="14"/>
       <c r="J526" s="14"/>
     </row>
-    <row r="527" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I527" s="14"/>
       <c r="J527" s="14"/>
     </row>
-    <row r="528" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I528" s="14"/>
       <c r="J528" s="14"/>
     </row>
-    <row r="529" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I529" s="14"/>
       <c r="J529" s="14"/>
     </row>
-    <row r="530" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I530" s="14"/>
       <c r="J530" s="14"/>
     </row>
-    <row r="531" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I531" s="14"/>
       <c r="J531" s="14"/>
     </row>
-    <row r="532" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I532" s="14"/>
       <c r="J532" s="14"/>
     </row>
-    <row r="533" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I533" s="14"/>
       <c r="J533" s="14"/>
     </row>
-    <row r="534" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I534" s="14"/>
       <c r="J534" s="14"/>
     </row>
-    <row r="535" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I535" s="14"/>
       <c r="J535" s="14"/>
     </row>
-    <row r="536" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I536" s="14"/>
       <c r="J536" s="14"/>
     </row>
-    <row r="537" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I537" s="14"/>
       <c r="J537" s="14"/>
     </row>
-    <row r="538" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I538" s="14"/>
       <c r="J538" s="14"/>
     </row>
-    <row r="539" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I539" s="14"/>
       <c r="J539" s="14"/>
     </row>
-    <row r="540" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I540" s="14"/>
       <c r="J540" s="14"/>
     </row>
-    <row r="541" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I541" s="14"/>
       <c r="J541" s="14"/>
     </row>
-    <row r="542" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I542" s="14"/>
       <c r="J542" s="14"/>
     </row>
-    <row r="543" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I543" s="14"/>
       <c r="J543" s="14"/>
     </row>
-    <row r="544" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I544" s="14"/>
       <c r="J544" s="14"/>
     </row>
-    <row r="545" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I545" s="14"/>
       <c r="J545" s="14"/>
     </row>
-    <row r="546" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I546" s="14"/>
       <c r="J546" s="14"/>
     </row>
-    <row r="547" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I547" s="14"/>
       <c r="J547" s="14"/>
     </row>
-    <row r="548" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I548" s="14"/>
       <c r="J548" s="14"/>
     </row>
-    <row r="549" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I549" s="14"/>
       <c r="J549" s="14"/>
     </row>
-    <row r="550" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I550" s="14"/>
       <c r="J550" s="14"/>
     </row>
-    <row r="551" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I551" s="14"/>
       <c r="J551" s="14"/>
     </row>
-    <row r="552" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I552" s="14"/>
       <c r="J552" s="14"/>
     </row>
-    <row r="553" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I553" s="14"/>
       <c r="J553" s="14"/>
     </row>
-    <row r="554" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I554" s="14"/>
       <c r="J554" s="14"/>
     </row>
-    <row r="555" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I555" s="14"/>
       <c r="J555" s="14"/>
     </row>
-    <row r="556" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I556" s="14"/>
       <c r="J556" s="14"/>
     </row>
-    <row r="557" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I557" s="14"/>
       <c r="J557" s="14"/>
     </row>
-    <row r="558" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I558" s="14"/>
       <c r="J558" s="14"/>
     </row>
-    <row r="559" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I559" s="14"/>
       <c r="J559" s="14"/>
     </row>
-    <row r="560" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I560" s="14"/>
       <c r="J560" s="14"/>
     </row>
-    <row r="561" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I561" s="14"/>
       <c r="J561" s="14"/>
     </row>
-    <row r="562" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I562" s="14"/>
       <c r="J562" s="14"/>
     </row>
-    <row r="563" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I563" s="14"/>
       <c r="J563" s="14"/>
     </row>
-    <row r="564" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I564" s="14"/>
       <c r="J564" s="14"/>
     </row>
-    <row r="565" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I565" s="14"/>
       <c r="J565" s="14"/>
     </row>
-    <row r="566" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I566" s="14"/>
       <c r="J566" s="14"/>
     </row>
-    <row r="567" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I567" s="14"/>
       <c r="J567" s="14"/>
     </row>
-    <row r="568" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I568" s="14"/>
       <c r="J568" s="14"/>
     </row>
-    <row r="569" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I569" s="14"/>
       <c r="J569" s="14"/>
     </row>
-    <row r="570" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I570" s="14"/>
       <c r="J570" s="14"/>
     </row>
-    <row r="571" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I571" s="14"/>
       <c r="J571" s="14"/>
     </row>
-    <row r="572" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I572" s="14"/>
       <c r="J572" s="14"/>
     </row>
-    <row r="573" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I573" s="14"/>
       <c r="J573" s="14"/>
     </row>
-    <row r="574" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I574" s="14"/>
       <c r="J574" s="14"/>
     </row>
-    <row r="575" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I575" s="14"/>
       <c r="J575" s="14"/>
     </row>
-    <row r="576" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I576" s="14"/>
       <c r="J576" s="14"/>
     </row>
-    <row r="577" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I577" s="14"/>
       <c r="J577" s="14"/>
     </row>
-    <row r="578" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I578" s="14"/>
       <c r="J578" s="14"/>
     </row>
-    <row r="579" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I579" s="14"/>
       <c r="J579" s="14"/>
     </row>
-    <row r="580" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I580" s="14"/>
       <c r="J580" s="14"/>
     </row>
-    <row r="581" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I581" s="14"/>
       <c r="J581" s="14"/>
     </row>
-    <row r="582" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I582" s="14"/>
       <c r="J582" s="14"/>
     </row>
-    <row r="583" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I583" s="14"/>
       <c r="J583" s="14"/>
     </row>
-    <row r="584" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I584" s="14"/>
       <c r="J584" s="14"/>
     </row>
-    <row r="585" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I585" s="14"/>
       <c r="J585" s="14"/>
     </row>
-    <row r="586" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I586" s="14"/>
       <c r="J586" s="14"/>
     </row>
-    <row r="587" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I587" s="14"/>
       <c r="J587" s="14"/>
     </row>
-    <row r="588" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I588" s="14"/>
       <c r="J588" s="14"/>
     </row>
-    <row r="589" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I589" s="14"/>
       <c r="J589" s="14"/>
     </row>
-    <row r="590" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I590" s="14"/>
       <c r="J590" s="14"/>
     </row>
-    <row r="591" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I591" s="14"/>
       <c r="J591" s="14"/>
     </row>
-    <row r="592" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I592" s="14"/>
       <c r="J592" s="14"/>
     </row>
-    <row r="593" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I593" s="14"/>
       <c r="J593" s="14"/>
     </row>
-    <row r="594" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I594" s="14"/>
       <c r="J594" s="14"/>
     </row>
-    <row r="595" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I595" s="14"/>
       <c r="J595" s="14"/>
     </row>
-    <row r="596" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I596" s="14"/>
       <c r="J596" s="14"/>
     </row>
-    <row r="597" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I597" s="14"/>
       <c r="J597" s="14"/>
     </row>
-    <row r="598" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I598" s="14"/>
       <c r="J598" s="14"/>
     </row>
-    <row r="599" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I599" s="14"/>
       <c r="J599" s="14"/>
     </row>
-    <row r="600" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I600" s="14"/>
       <c r="J600" s="14"/>
     </row>
-    <row r="601" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I601" s="14"/>
       <c r="J601" s="14"/>
     </row>
-    <row r="602" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I602" s="14"/>
       <c r="J602" s="14"/>
     </row>
-    <row r="603" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I603" s="14"/>
       <c r="J603" s="14"/>
     </row>
-    <row r="604" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I604" s="14"/>
       <c r="J604" s="14"/>
     </row>
-    <row r="605" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I605" s="14"/>
       <c r="J605" s="14"/>
     </row>
-    <row r="606" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I606" s="14"/>
       <c r="J606" s="14"/>
     </row>
-    <row r="607" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I607" s="14"/>
       <c r="J607" s="14"/>
     </row>
-    <row r="608" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I608" s="14"/>
       <c r="J608" s="14"/>
     </row>
-    <row r="609" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I609" s="14"/>
       <c r="J609" s="14"/>
     </row>
-    <row r="610" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I610" s="14"/>
       <c r="J610" s="14"/>
     </row>
-    <row r="611" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I611" s="14"/>
       <c r="J611" s="14"/>
     </row>
-    <row r="612" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I612" s="14"/>
       <c r="J612" s="14"/>
     </row>
-    <row r="613" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I613" s="14"/>
       <c r="J613" s="14"/>
     </row>
-    <row r="614" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I614" s="14"/>
       <c r="J614" s="14"/>
     </row>
-    <row r="615" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I615" s="14"/>
       <c r="J615" s="14"/>
     </row>
-    <row r="616" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I616" s="14"/>
       <c r="J616" s="14"/>
     </row>
-    <row r="617" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I617" s="14"/>
       <c r="J617" s="14"/>
     </row>
-    <row r="618" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I618" s="14"/>
       <c r="J618" s="14"/>
     </row>
-    <row r="619" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I619" s="14"/>
       <c r="J619" s="14"/>
     </row>
-    <row r="620" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I620" s="14"/>
       <c r="J620" s="14"/>
     </row>
-    <row r="621" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I621" s="14"/>
       <c r="J621" s="14"/>
     </row>
-    <row r="622" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I622" s="14"/>
       <c r="J622" s="14"/>
     </row>
-    <row r="623" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I623" s="14"/>
       <c r="J623" s="14"/>
     </row>
-    <row r="624" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I624" s="14"/>
       <c r="J624" s="14"/>
     </row>
-    <row r="625" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I625" s="14"/>
       <c r="J625" s="14"/>
     </row>
-    <row r="626" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I626" s="14"/>
       <c r="J626" s="14"/>
     </row>
-    <row r="627" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I627" s="14"/>
       <c r="J627" s="14"/>
     </row>
-    <row r="628" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I628" s="14"/>
       <c r="J628" s="14"/>
     </row>
-    <row r="629" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I629" s="14"/>
       <c r="J629" s="14"/>
     </row>
-    <row r="630" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I630" s="14"/>
       <c r="J630" s="14"/>
     </row>
-    <row r="631" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I631" s="14"/>
       <c r="J631" s="14"/>
     </row>
-    <row r="632" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I632" s="14"/>
       <c r="J632" s="14"/>
     </row>
-    <row r="633" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I633" s="14"/>
       <c r="J633" s="14"/>
     </row>
-    <row r="634" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I634" s="14"/>
       <c r="J634" s="14"/>
     </row>
-    <row r="635" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I635" s="14"/>
       <c r="J635" s="14"/>
     </row>
-    <row r="636" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I636" s="14"/>
       <c r="J636" s="14"/>
     </row>
-    <row r="637" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I637" s="14"/>
       <c r="J637" s="14"/>
     </row>
-    <row r="638" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I638" s="14"/>
       <c r="J638" s="14"/>
     </row>
-    <row r="639" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I639" s="14"/>
       <c r="J639" s="14"/>
     </row>
-    <row r="640" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I640" s="14"/>
       <c r="J640" s="14"/>
     </row>
-    <row r="641" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I641" s="14"/>
       <c r="J641" s="14"/>
     </row>
-    <row r="642" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I642" s="14"/>
       <c r="J642" s="14"/>
     </row>
-    <row r="643" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I643" s="14"/>
       <c r="J643" s="14"/>
     </row>
-    <row r="644" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I644" s="14"/>
       <c r="J644" s="14"/>
     </row>
-    <row r="645" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I645" s="14"/>
       <c r="J645" s="14"/>
     </row>
-    <row r="646" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I646" s="14"/>
       <c r="J646" s="14"/>
     </row>
-    <row r="647" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I647" s="14"/>
       <c r="J647" s="14"/>
     </row>
-    <row r="648" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I648" s="14"/>
       <c r="J648" s="14"/>
     </row>
-    <row r="649" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I649" s="14"/>
       <c r="J649" s="14"/>
     </row>
-    <row r="650" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I650" s="14"/>
       <c r="J650" s="14"/>
     </row>
-    <row r="651" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I651" s="14"/>
       <c r="J651" s="14"/>
     </row>
-    <row r="652" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I652" s="14"/>
       <c r="J652" s="14"/>
     </row>
-    <row r="653" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I653" s="14"/>
       <c r="J653" s="14"/>
     </row>
-    <row r="654" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I654" s="14"/>
       <c r="J654" s="14"/>
     </row>
-    <row r="655" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I655" s="14"/>
       <c r="J655" s="14"/>
     </row>
-    <row r="656" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I656" s="14"/>
       <c r="J656" s="14"/>
     </row>
-    <row r="657" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I657" s="14"/>
       <c r="J657" s="14"/>
     </row>
-    <row r="658" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I658" s="14"/>
       <c r="J658" s="14"/>
     </row>
-    <row r="659" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I659" s="14"/>
       <c r="J659" s="14"/>
     </row>
-    <row r="660" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I660" s="14"/>
       <c r="J660" s="14"/>
     </row>
-    <row r="661" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I661" s="14"/>
       <c r="J661" s="14"/>
     </row>
-    <row r="662" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I662" s="14"/>
       <c r="J662" s="14"/>
     </row>
-    <row r="663" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I663" s="14"/>
       <c r="J663" s="14"/>
     </row>
-    <row r="664" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I664" s="14"/>
       <c r="J664" s="14"/>
     </row>
-    <row r="665" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I665" s="14"/>
       <c r="J665" s="14"/>
     </row>
-    <row r="666" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I666" s="14"/>
       <c r="J666" s="14"/>
     </row>
-    <row r="667" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I667" s="14"/>
       <c r="J667" s="14"/>
     </row>
-    <row r="668" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I668" s="14"/>
       <c r="J668" s="14"/>
     </row>
-    <row r="669" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I669" s="14"/>
       <c r="J669" s="14"/>
     </row>
-    <row r="670" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I670" s="14"/>
       <c r="J670" s="14"/>
     </row>
-    <row r="671" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I671" s="14"/>
       <c r="J671" s="14"/>
     </row>
-    <row r="672" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I672" s="14"/>
       <c r="J672" s="14"/>
     </row>
-    <row r="673" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I673" s="14"/>
       <c r="J673" s="14"/>
     </row>
-    <row r="674" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I674" s="14"/>
       <c r="J674" s="14"/>
     </row>
-    <row r="675" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I675" s="14"/>
       <c r="J675" s="14"/>
     </row>
-    <row r="676" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I676" s="14"/>
       <c r="J676" s="14"/>
     </row>
-    <row r="677" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I677" s="14"/>
       <c r="J677" s="14"/>
     </row>
-    <row r="678" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I678" s="14"/>
       <c r="J678" s="14"/>
     </row>
-    <row r="679" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I679" s="14"/>
       <c r="J679" s="14"/>
     </row>
-    <row r="680" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I680" s="14"/>
       <c r="J680" s="14"/>
     </row>
-    <row r="681" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I681" s="14"/>
       <c r="J681" s="14"/>
     </row>
-    <row r="682" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I682" s="14"/>
       <c r="J682" s="14"/>
     </row>
-    <row r="683" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I683" s="14"/>
       <c r="J683" s="14"/>
     </row>
-    <row r="684" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I684" s="14"/>
       <c r="J684" s="14"/>
     </row>
-    <row r="685" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I685" s="14"/>
       <c r="J685" s="14"/>
     </row>
-    <row r="686" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I686" s="14"/>
       <c r="J686" s="14"/>
     </row>
-    <row r="687" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I687" s="14"/>
       <c r="J687" s="14"/>
     </row>
-    <row r="688" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I688" s="14"/>
       <c r="J688" s="14"/>
     </row>
-    <row r="689" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I689" s="14"/>
       <c r="J689" s="14"/>
     </row>
-    <row r="690" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I690" s="14"/>
       <c r="J690" s="14"/>
     </row>
-    <row r="691" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I691" s="14"/>
       <c r="J691" s="14"/>
     </row>
-    <row r="692" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I692" s="14"/>
       <c r="J692" s="14"/>
     </row>
-    <row r="693" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I693" s="14"/>
       <c r="J693" s="14"/>
     </row>
-    <row r="694" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I694" s="14"/>
       <c r="J694" s="14"/>
     </row>
-    <row r="695" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I695" s="14"/>
       <c r="J695" s="14"/>
     </row>
-    <row r="696" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I696" s="14"/>
       <c r="J696" s="14"/>
     </row>
-    <row r="697" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I697" s="14"/>
       <c r="J697" s="14"/>
     </row>
-    <row r="698" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I698" s="14"/>
       <c r="J698" s="14"/>
     </row>
-    <row r="699" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I699" s="14"/>
       <c r="J699" s="14"/>
     </row>
-    <row r="700" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I700" s="14"/>
       <c r="J700" s="14"/>
     </row>
-    <row r="701" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I701" s="14"/>
       <c r="J701" s="14"/>
     </row>
-    <row r="702" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I702" s="14"/>
       <c r="J702" s="14"/>
     </row>
-    <row r="703" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I703" s="14"/>
       <c r="J703" s="14"/>
     </row>
-    <row r="704" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I704" s="14"/>
       <c r="J704" s="14"/>
     </row>
-    <row r="705" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I705" s="14"/>
       <c r="J705" s="14"/>
     </row>
-    <row r="706" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I706" s="14"/>
       <c r="J706" s="14"/>
     </row>
-    <row r="707" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I707" s="14"/>
       <c r="J707" s="14"/>
     </row>
-    <row r="708" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I708" s="14"/>
       <c r="J708" s="14"/>
     </row>
-    <row r="709" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I709" s="14"/>
       <c r="J709" s="14"/>
     </row>
-    <row r="710" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I710" s="14"/>
       <c r="J710" s="14"/>
     </row>
-    <row r="711" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I711" s="14"/>
       <c r="J711" s="14"/>
     </row>
-    <row r="712" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I712" s="14"/>
       <c r="J712" s="14"/>
     </row>
-    <row r="713" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I713" s="14"/>
       <c r="J713" s="14"/>
     </row>
-    <row r="714" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I714" s="14"/>
       <c r="J714" s="14"/>
     </row>
-    <row r="715" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I715" s="14"/>
       <c r="J715" s="14"/>
     </row>
-    <row r="716" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I716" s="14"/>
       <c r="J716" s="14"/>
     </row>
-    <row r="717" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I717" s="14"/>
       <c r="J717" s="14"/>
     </row>
-    <row r="718" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I718" s="14"/>
       <c r="J718" s="14"/>
     </row>
-    <row r="719" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I719" s="14"/>
       <c r="J719" s="14"/>
     </row>
-    <row r="720" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I720" s="14"/>
       <c r="J720" s="14"/>
     </row>
-    <row r="721" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I721" s="14"/>
       <c r="J721" s="14"/>
     </row>
-    <row r="722" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I722" s="14"/>
       <c r="J722" s="14"/>
     </row>
-    <row r="723" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I723" s="14"/>
       <c r="J723" s="14"/>
     </row>
-    <row r="724" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I724" s="14"/>
       <c r="J724" s="14"/>
     </row>
-    <row r="725" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I725" s="14"/>
       <c r="J725" s="14"/>
     </row>
-    <row r="726" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I726" s="14"/>
       <c r="J726" s="14"/>
     </row>
-    <row r="727" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I727" s="14"/>
       <c r="J727" s="14"/>
     </row>
-    <row r="728" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I728" s="14"/>
       <c r="J728" s="14"/>
     </row>
-    <row r="729" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I729" s="14"/>
       <c r="J729" s="14"/>
     </row>
-    <row r="730" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I730" s="14"/>
       <c r="J730" s="14"/>
     </row>
-    <row r="731" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I731" s="14"/>
       <c r="J731" s="14"/>
     </row>
-    <row r="732" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I732" s="14"/>
       <c r="J732" s="14"/>
     </row>
-    <row r="733" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I733" s="14"/>
       <c r="J733" s="14"/>
     </row>
-    <row r="734" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I734" s="14"/>
       <c r="J734" s="14"/>
     </row>
-    <row r="735" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I735" s="14"/>
       <c r="J735" s="14"/>
     </row>
-    <row r="736" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I736" s="14"/>
       <c r="J736" s="14"/>
     </row>
-    <row r="737" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I737" s="14"/>
       <c r="J737" s="14"/>
     </row>
-    <row r="738" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I738" s="14"/>
       <c r="J738" s="14"/>
     </row>
-    <row r="739" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I739" s="14"/>
       <c r="J739" s="14"/>
     </row>
-    <row r="740" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I740" s="14"/>
       <c r="J740" s="14"/>
     </row>
-    <row r="741" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I741" s="14"/>
       <c r="J741" s="14"/>
     </row>
-    <row r="742" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I742" s="14"/>
       <c r="J742" s="14"/>
     </row>
-    <row r="743" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I743" s="14"/>
       <c r="J743" s="14"/>
     </row>
-    <row r="744" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I744" s="14"/>
       <c r="J744" s="14"/>
     </row>
-    <row r="745" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I745" s="14"/>
       <c r="J745" s="14"/>
     </row>
-    <row r="746" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I746" s="14"/>
       <c r="J746" s="14"/>
     </row>

--- a/metadata/raw_sample_metadata.xlsx
+++ b/metadata/raw_sample_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f19994348ecc0c8c/Documents/GitHub/uwa_darwins_daisy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACBF4446-649D-485D-8DD2-637D25BB2099}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{045BB79E-7D80-4928-AA88-A8A965C8895E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +654,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -682,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -715,6 +769,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,11 +1000,11 @@
   </sheetPr>
   <dimension ref="A1:Q746"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1079,7 @@
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="15">
@@ -1053,7 +1118,7 @@
       <c r="D3" s="8">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="15">
@@ -1092,7 +1157,7 @@
       <c r="D4" s="8">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="15">
@@ -1131,7 +1196,7 @@
       <c r="D5" s="8">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F5" s="15">
@@ -1170,7 +1235,7 @@
       <c r="D6" s="8">
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F6" s="15">
@@ -1209,7 +1274,7 @@
       <c r="D7" s="8">
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="23" t="s">
         <v>81</v>
       </c>
       <c r="F7" s="15">
@@ -1248,7 +1313,7 @@
       <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="15">
@@ -1287,7 +1352,7 @@
       <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="15">
@@ -1326,7 +1391,7 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="15">
@@ -1369,7 +1434,7 @@
       <c r="D11" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="26" t="s">
         <v>141</v>
       </c>
       <c r="F11" s="15">
@@ -1412,7 +1477,7 @@
       <c r="D12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="15">
@@ -1455,7 +1520,7 @@
       <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="15">
@@ -1498,7 +1563,7 @@
       <c r="D14" s="8">
         <v>4</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="15">
@@ -1541,7 +1606,7 @@
       <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="15">
@@ -1584,7 +1649,7 @@
       <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="15">
@@ -1625,7 +1690,7 @@
       <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="15">
@@ -1668,7 +1733,7 @@
       <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="15">
@@ -1711,7 +1776,7 @@
       <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="15">
@@ -1754,7 +1819,7 @@
       <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="15">
@@ -1797,7 +1862,7 @@
       <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="29" t="s">
         <v>104</v>
       </c>
       <c r="F21" s="15">
@@ -1840,7 +1905,7 @@
       <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="15">
@@ -1883,7 +1948,7 @@
       <c r="D23" s="8">
         <v>4</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="15">
@@ -1969,7 +2034,7 @@
       <c r="D25" s="8">
         <v>5</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="30" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="15">
@@ -2012,7 +2077,7 @@
       <c r="D26" s="8">
         <v>5</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="30" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="15">
@@ -2055,7 +2120,7 @@
       <c r="D27" s="8">
         <v>5</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="30" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="15">
@@ -2098,7 +2163,7 @@
       <c r="D28" s="8">
         <v>6</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="15">
@@ -2139,7 +2204,7 @@
       <c r="D29" s="8">
         <v>6</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="15">
@@ -2182,7 +2247,7 @@
       <c r="D30" s="8">
         <v>4</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="15">
@@ -2225,7 +2290,7 @@
       <c r="D31" s="8">
         <v>6</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="15">
@@ -2268,7 +2333,7 @@
       <c r="D32" s="8">
         <v>4</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="15">
@@ -2311,7 +2376,7 @@
       <c r="D33" s="8">
         <v>4</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="15">
@@ -2354,7 +2419,7 @@
       <c r="D34" s="8">
         <v>4</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="15">
@@ -2397,7 +2462,7 @@
       <c r="D35" s="8">
         <v>1</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F35" s="15">
@@ -2440,7 +2505,7 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="32" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="15">

--- a/metadata/raw_sample_metadata.xlsx
+++ b/metadata/raw_sample_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f19994348ecc0c8c/Documents/GitHub/uwa_darwins_daisy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{045BB79E-7D80-4928-AA88-A8A965C8895E}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EFDFB3-82DA-4088-BC07-4089E87FF0BA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="S1 Sample Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S1 Sample Overview'!$A$1:$M$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S1 Sample Overview'!$A$1:$M$409</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
   <si>
     <t>sampleID</t>
   </si>
@@ -509,19 +509,7 @@
     <t>ERR12356073, ERR12356079</t>
   </si>
   <si>
-    <t>HAMP24</t>
-  </si>
-  <si>
     <t>Scalesia villosa</t>
-  </si>
-  <si>
-    <t>Champion</t>
-  </si>
-  <si>
-    <t>HAMP24_2</t>
-  </si>
-  <si>
-    <t>ERR12360771</t>
   </si>
   <si>
     <t>HAMP28</t>
@@ -611,7 +599,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,12 +627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -769,8 +751,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -778,8 +760,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,13 +979,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q746"/>
+  <dimension ref="A1:Q745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1079,7 +1060,7 @@
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="15">
@@ -1118,7 +1099,7 @@
       <c r="D3" s="8">
         <v>6</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="15">
@@ -1157,7 +1138,7 @@
       <c r="D4" s="8">
         <v>6</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="15">
@@ -1196,7 +1177,7 @@
       <c r="D5" s="8">
         <v>6</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F5" s="15">
@@ -1235,7 +1216,7 @@
       <c r="D6" s="8">
         <v>6</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F6" s="15">
@@ -1274,7 +1255,7 @@
       <c r="D7" s="8">
         <v>6</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F7" s="15">
@@ -1391,7 +1372,7 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="15">
@@ -1434,7 +1415,7 @@
       <c r="D11" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>141</v>
       </c>
       <c r="F11" s="15">
@@ -1477,7 +1458,7 @@
       <c r="D12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="15">
@@ -1520,7 +1501,7 @@
       <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="15">
@@ -1640,7 +1621,7 @@
       <c r="A16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1649,7 +1630,7 @@
       <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="15">
@@ -1681,7 +1662,7 @@
       <c r="A17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1690,7 +1671,7 @@
       <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="15">
@@ -1724,7 +1705,7 @@
       <c r="A18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1733,7 +1714,7 @@
       <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="15">
@@ -1862,7 +1843,7 @@
       <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F21" s="15">
@@ -1979,42 +1960,42 @@
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>150</v>
+      <c r="A24" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>149</v>
+        <v>5</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="F24" s="15">
         <v>35815</v>
       </c>
       <c r="G24" s="12">
-        <v>-1.2372209999999999</v>
+        <v>-1.2252780000000001</v>
       </c>
       <c r="H24" s="12">
-        <v>-90.385727000000003</v>
+        <v>-90.427778000000004</v>
       </c>
       <c r="I24" s="12">
-        <v>8.7117799999999992</v>
+        <v>13.6873</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
@@ -2022,42 +2003,42 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
-        <v>153</v>
+      <c r="A25" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8">
         <v>5</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="15">
-        <v>35815</v>
+        <v>35816</v>
       </c>
       <c r="G25" s="12">
-        <v>-1.2252780000000001</v>
+        <v>-1.282778</v>
       </c>
       <c r="H25" s="12">
-        <v>-90.427778000000004</v>
+        <v>-90.491388999999998</v>
       </c>
       <c r="I25" s="12">
-        <v>13.6873</v>
+        <v>12.360900000000001</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="9" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -2066,41 +2047,41 @@
     </row>
     <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D26" s="8">
         <v>5</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="15">
         <v>35816</v>
       </c>
       <c r="G26" s="12">
-        <v>-1.282778</v>
+        <v>-1.291944</v>
       </c>
       <c r="H26" s="12">
-        <v>-90.491388999999998</v>
+        <v>-90.453056000000004</v>
       </c>
       <c r="I26" s="12">
-        <v>12.360900000000001</v>
+        <v>14.399699999999999</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="9" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
@@ -2109,41 +2090,39 @@
     </row>
     <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D27" s="8">
-        <v>5</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="F27" s="15">
-        <v>35816</v>
+        <v>35820</v>
       </c>
       <c r="G27" s="12">
-        <v>-1.291944</v>
+        <v>-0.901111</v>
       </c>
       <c r="H27" s="12">
-        <v>-90.453056000000004</v>
+        <v>-89.439722000000003</v>
       </c>
       <c r="I27" s="12">
-        <v>14.399699999999999</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>57</v>
-      </c>
+        <v>13.2997</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="6"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -2152,39 +2131,41 @@
     </row>
     <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D28" s="8">
         <v>6</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="15">
-        <v>35820</v>
+        <v>35821</v>
       </c>
       <c r="G28" s="12">
-        <v>-0.901111</v>
+        <v>-0.93027800000000005</v>
       </c>
       <c r="H28" s="12">
-        <v>-89.439722000000003</v>
+        <v>-89.608056000000005</v>
       </c>
       <c r="I28" s="12">
-        <v>13.2997</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="6"/>
+        <v>14.261100000000001</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="9" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -2193,31 +2174,31 @@
     </row>
     <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D29" s="8">
-        <v>6</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F29" s="15">
-        <v>35821</v>
+        <v>35809</v>
       </c>
       <c r="G29" s="12">
-        <v>-0.93027800000000005</v>
+        <v>-0.73777800000000004</v>
       </c>
       <c r="H29" s="12">
-        <v>-89.608056000000005</v>
+        <v>-90.324444</v>
       </c>
       <c r="I29" s="12">
-        <v>14.261100000000001</v>
+        <v>13.123100000000001</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>15</v>
@@ -2227,7 +2208,7 @@
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="9" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -2236,41 +2217,41 @@
     </row>
     <row r="30" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D30" s="8">
-        <v>4</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="F30" s="15">
-        <v>35809</v>
+        <v>35822</v>
       </c>
       <c r="G30" s="12">
-        <v>-0.73777800000000004</v>
+        <v>-0.71166700000000005</v>
       </c>
       <c r="H30" s="12">
-        <v>-90.324444</v>
+        <v>-89.247500000000002</v>
       </c>
       <c r="I30" s="12">
-        <v>13.123100000000001</v>
+        <v>12.0222</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
@@ -2279,41 +2260,41 @@
     </row>
     <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D31" s="8">
-        <v>6</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="15">
-        <v>35822</v>
+        <v>35810</v>
       </c>
       <c r="G31" s="12">
-        <v>-0.71166700000000005</v>
+        <v>-0.48991699999999999</v>
       </c>
       <c r="H31" s="12">
-        <v>-89.247500000000002</v>
+        <v>-90.280249999999995</v>
       </c>
       <c r="I31" s="12">
-        <v>12.0222</v>
+        <v>13.773899999999999</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="9" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -2322,13 +2303,13 @@
     </row>
     <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D32" s="8">
         <v>4</v>
@@ -2340,13 +2321,13 @@
         <v>35810</v>
       </c>
       <c r="G32" s="12">
-        <v>-0.48991699999999999</v>
+        <v>-0.54666700000000001</v>
       </c>
       <c r="H32" s="12">
-        <v>-90.280249999999995</v>
+        <v>-90.319166999999993</v>
       </c>
       <c r="I32" s="12">
-        <v>13.773899999999999</v>
+        <v>15.8598</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>15</v>
@@ -2356,7 +2337,7 @@
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="9" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
@@ -2365,13 +2346,13 @@
     </row>
     <row r="33" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="D33" s="8">
         <v>4</v>
@@ -2380,16 +2361,16 @@
         <v>19</v>
       </c>
       <c r="F33" s="15">
-        <v>35810</v>
+        <v>36921</v>
       </c>
       <c r="G33" s="12">
-        <v>-0.54666700000000001</v>
+        <v>-0.71294999999999997</v>
       </c>
       <c r="H33" s="12">
-        <v>-90.319166999999993</v>
+        <v>-90.226892000000007</v>
       </c>
       <c r="I33" s="12">
-        <v>15.8598</v>
+        <v>13.0764</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>15</v>
@@ -2399,7 +2380,7 @@
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="9" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
@@ -2408,41 +2389,41 @@
     </row>
     <row r="34" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D34" s="8">
-        <v>4</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="F34" s="15">
-        <v>36921</v>
+        <v>36536</v>
       </c>
       <c r="G34" s="12">
-        <v>-0.71294999999999997</v>
+        <v>0.54157200000000005</v>
       </c>
       <c r="H34" s="12">
-        <v>-90.226892000000007</v>
+        <v>-90.741054000000005</v>
       </c>
       <c r="I34" s="12">
-        <v>13.0764</v>
+        <v>15.1455</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="9" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
@@ -2451,10 +2432,10 @@
     </row>
     <row r="35" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>51</v>
@@ -2466,26 +2447,26 @@
         <v>52</v>
       </c>
       <c r="F35" s="15">
-        <v>36536</v>
+        <v>36541</v>
       </c>
       <c r="G35" s="12">
-        <v>0.54157200000000005</v>
+        <v>0.57333299999999998</v>
       </c>
       <c r="H35" s="12">
-        <v>-90.741054000000005</v>
+        <v>-90.764388999999994</v>
       </c>
       <c r="I35" s="12">
-        <v>15.1455</v>
+        <v>15.824199999999999</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
@@ -2493,43 +2474,19 @@
       <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="15">
-        <v>36541</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0.57333299999999998</v>
-      </c>
-      <c r="H36" s="12">
-        <v>-90.764388999999994</v>
-      </c>
-      <c r="I36" s="12">
-        <v>15.824199999999999</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="M36" s="9"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
@@ -3034,7 +2991,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="15"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -3053,7 +3010,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="16"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="15"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -3229,8 +3186,8 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
       <c r="L73" s="8"/>
       <c r="M73" s="9"/>
       <c r="N73" s="14"/>
@@ -3248,8 +3205,8 @@
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
       <c r="L74" s="8"/>
       <c r="M74" s="9"/>
       <c r="N74" s="14"/>
@@ -3932,8 +3889,8 @@
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
       <c r="L110" s="8"/>
       <c r="M110" s="9"/>
       <c r="N110" s="14"/>
@@ -3951,8 +3908,8 @@
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
       <c r="L111" s="8"/>
       <c r="M111" s="9"/>
       <c r="N111" s="14"/>
@@ -4255,8 +4212,8 @@
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
       <c r="L127" s="8"/>
       <c r="M127" s="9"/>
       <c r="N127" s="14"/>
@@ -4274,8 +4231,8 @@
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
       <c r="L128" s="8"/>
       <c r="M128" s="9"/>
       <c r="N128" s="14"/>
@@ -4312,8 +4269,8 @@
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
       <c r="L130" s="8"/>
       <c r="M130" s="9"/>
       <c r="N130" s="14"/>
@@ -4331,8 +4288,8 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
       <c r="L131" s="8"/>
       <c r="M131" s="9"/>
       <c r="N131" s="14"/>
@@ -4364,7 +4321,7 @@
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
+      <c r="E133" s="16"/>
       <c r="F133" s="15"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -4383,7 +4340,7 @@
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
-      <c r="E134" s="16"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="15"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -5010,7 +4967,7 @@
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="E167" s="16"/>
       <c r="F167" s="15"/>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -5029,7 +4986,7 @@
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="16"/>
+      <c r="E168" s="8"/>
       <c r="F168" s="15"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -5167,8 +5124,8 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="13"/>
-      <c r="K175" s="13"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
       <c r="L175" s="8"/>
       <c r="M175" s="9"/>
       <c r="N175" s="14"/>
@@ -5186,8 +5143,8 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
       <c r="L176" s="8"/>
       <c r="M176" s="9"/>
       <c r="N176" s="14"/>
@@ -5200,7 +5157,7 @@
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
+      <c r="E177" s="16"/>
       <c r="F177" s="15"/>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
@@ -5219,7 +5176,7 @@
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="16"/>
+      <c r="E178" s="8"/>
       <c r="F178" s="15"/>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
@@ -5789,7 +5746,7 @@
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
+      <c r="E208" s="16"/>
       <c r="F208" s="15"/>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
@@ -5808,7 +5765,7 @@
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
-      <c r="E209" s="16"/>
+      <c r="E209" s="8"/>
       <c r="F209" s="15"/>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -5922,7 +5879,7 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
+      <c r="E215" s="16"/>
       <c r="F215" s="15"/>
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
@@ -5941,7 +5898,7 @@
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="16"/>
+      <c r="E216" s="8"/>
       <c r="F216" s="15"/>
       <c r="G216" s="12"/>
       <c r="H216" s="12"/>
@@ -6150,7 +6107,7 @@
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
+      <c r="E227" s="16"/>
       <c r="F227" s="15"/>
       <c r="G227" s="12"/>
       <c r="H227" s="12"/>
@@ -6169,7 +6126,7 @@
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="16"/>
+      <c r="E228" s="8"/>
       <c r="F228" s="15"/>
       <c r="G228" s="12"/>
       <c r="H228" s="12"/>
@@ -6511,7 +6468,7 @@
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+      <c r="E246" s="16"/>
       <c r="F246" s="15"/>
       <c r="G246" s="12"/>
       <c r="H246" s="12"/>
@@ -6530,7 +6487,7 @@
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
-      <c r="E247" s="16"/>
+      <c r="E247" s="8"/>
       <c r="F247" s="15"/>
       <c r="G247" s="12"/>
       <c r="H247" s="12"/>
@@ -6815,7 +6772,7 @@
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
+      <c r="E262" s="16"/>
       <c r="F262" s="15"/>
       <c r="G262" s="12"/>
       <c r="H262" s="12"/>
@@ -6834,7 +6791,7 @@
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
-      <c r="E263" s="16"/>
+      <c r="E263" s="8"/>
       <c r="F263" s="15"/>
       <c r="G263" s="12"/>
       <c r="H263" s="12"/>
@@ -7162,8 +7119,8 @@
       <c r="G280" s="12"/>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
-      <c r="J280" s="13"/>
-      <c r="K280" s="13"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
       <c r="L280" s="8"/>
       <c r="M280" s="9"/>
       <c r="N280" s="14"/>
@@ -7181,8 +7138,8 @@
       <c r="G281" s="12"/>
       <c r="H281" s="12"/>
       <c r="I281" s="12"/>
-      <c r="J281" s="6"/>
-      <c r="K281" s="6"/>
+      <c r="J281" s="13"/>
+      <c r="K281" s="13"/>
       <c r="L281" s="8"/>
       <c r="M281" s="9"/>
       <c r="N281" s="14"/>
@@ -7447,8 +7404,8 @@
       <c r="G295" s="12"/>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
-      <c r="J295" s="13"/>
-      <c r="K295" s="13"/>
+      <c r="J295" s="6"/>
+      <c r="K295" s="6"/>
       <c r="L295" s="8"/>
       <c r="M295" s="9"/>
       <c r="N295" s="14"/>
@@ -7485,8 +7442,8 @@
       <c r="G297" s="12"/>
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
-      <c r="J297" s="6"/>
-      <c r="K297" s="6"/>
+      <c r="J297" s="13"/>
+      <c r="K297" s="13"/>
       <c r="L297" s="8"/>
       <c r="M297" s="9"/>
       <c r="N297" s="14"/>
@@ -7599,8 +7556,8 @@
       <c r="G303" s="12"/>
       <c r="H303" s="12"/>
       <c r="I303" s="12"/>
-      <c r="J303" s="13"/>
-      <c r="K303" s="13"/>
+      <c r="J303" s="6"/>
+      <c r="K303" s="6"/>
       <c r="L303" s="8"/>
       <c r="M303" s="9"/>
       <c r="N303" s="14"/>
@@ -7618,8 +7575,8 @@
       <c r="G304" s="12"/>
       <c r="H304" s="12"/>
       <c r="I304" s="12"/>
-      <c r="J304" s="6"/>
-      <c r="K304" s="6"/>
+      <c r="J304" s="13"/>
+      <c r="K304" s="13"/>
       <c r="L304" s="8"/>
       <c r="M304" s="9"/>
       <c r="N304" s="14"/>
@@ -7656,8 +7613,8 @@
       <c r="G306" s="12"/>
       <c r="H306" s="12"/>
       <c r="I306" s="12"/>
-      <c r="J306" s="13"/>
-      <c r="K306" s="13"/>
+      <c r="J306" s="6"/>
+      <c r="K306" s="6"/>
       <c r="L306" s="8"/>
       <c r="M306" s="9"/>
       <c r="N306" s="14"/>
@@ -7675,8 +7632,8 @@
       <c r="G307" s="12"/>
       <c r="H307" s="12"/>
       <c r="I307" s="12"/>
-      <c r="J307" s="6"/>
-      <c r="K307" s="6"/>
+      <c r="J307" s="13"/>
+      <c r="K307" s="13"/>
       <c r="L307" s="8"/>
       <c r="M307" s="9"/>
       <c r="N307" s="14"/>
@@ -7732,8 +7689,8 @@
       <c r="G310" s="12"/>
       <c r="H310" s="12"/>
       <c r="I310" s="12"/>
-      <c r="J310" s="13"/>
-      <c r="K310" s="13"/>
+      <c r="J310" s="6"/>
+      <c r="K310" s="6"/>
       <c r="L310" s="8"/>
       <c r="M310" s="9"/>
       <c r="N310" s="14"/>
@@ -7751,8 +7708,8 @@
       <c r="G311" s="12"/>
       <c r="H311" s="12"/>
       <c r="I311" s="12"/>
-      <c r="J311" s="6"/>
-      <c r="K311" s="6"/>
+      <c r="J311" s="13"/>
+      <c r="K311" s="13"/>
       <c r="L311" s="8"/>
       <c r="M311" s="9"/>
       <c r="N311" s="14"/>
@@ -7960,8 +7917,8 @@
       <c r="G322" s="12"/>
       <c r="H322" s="12"/>
       <c r="I322" s="12"/>
-      <c r="J322" s="13"/>
-      <c r="K322" s="13"/>
+      <c r="J322" s="6"/>
+      <c r="K322" s="6"/>
       <c r="L322" s="8"/>
       <c r="M322" s="9"/>
       <c r="N322" s="14"/>
@@ -7979,8 +7936,8 @@
       <c r="G323" s="12"/>
       <c r="H323" s="12"/>
       <c r="I323" s="12"/>
-      <c r="J323" s="6"/>
-      <c r="K323" s="6"/>
+      <c r="J323" s="13"/>
+      <c r="K323" s="13"/>
       <c r="L323" s="8"/>
       <c r="M323" s="9"/>
       <c r="N323" s="14"/>
@@ -8055,8 +8012,8 @@
       <c r="G327" s="12"/>
       <c r="H327" s="12"/>
       <c r="I327" s="12"/>
-      <c r="J327" s="13"/>
-      <c r="K327" s="13"/>
+      <c r="J327" s="6"/>
+      <c r="K327" s="6"/>
       <c r="L327" s="8"/>
       <c r="M327" s="9"/>
       <c r="N327" s="14"/>
@@ -8074,8 +8031,8 @@
       <c r="G328" s="12"/>
       <c r="H328" s="12"/>
       <c r="I328" s="12"/>
-      <c r="J328" s="6"/>
-      <c r="K328" s="6"/>
+      <c r="J328" s="13"/>
+      <c r="K328" s="13"/>
       <c r="L328" s="8"/>
       <c r="M328" s="9"/>
       <c r="N328" s="14"/>
@@ -8131,8 +8088,8 @@
       <c r="G331" s="12"/>
       <c r="H331" s="12"/>
       <c r="I331" s="12"/>
-      <c r="J331" s="13"/>
-      <c r="K331" s="13"/>
+      <c r="J331" s="6"/>
+      <c r="K331" s="6"/>
       <c r="L331" s="8"/>
       <c r="M331" s="9"/>
       <c r="N331" s="14"/>
@@ -8150,8 +8107,8 @@
       <c r="G332" s="12"/>
       <c r="H332" s="12"/>
       <c r="I332" s="12"/>
-      <c r="J332" s="6"/>
-      <c r="K332" s="6"/>
+      <c r="J332" s="13"/>
+      <c r="K332" s="13"/>
       <c r="L332" s="8"/>
       <c r="M332" s="9"/>
       <c r="N332" s="14"/>
@@ -8226,8 +8183,8 @@
       <c r="G336" s="12"/>
       <c r="H336" s="12"/>
       <c r="I336" s="12"/>
-      <c r="J336" s="13"/>
-      <c r="K336" s="13"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="6"/>
       <c r="L336" s="8"/>
       <c r="M336" s="9"/>
       <c r="N336" s="14"/>
@@ -8245,8 +8202,8 @@
       <c r="G337" s="12"/>
       <c r="H337" s="12"/>
       <c r="I337" s="12"/>
-      <c r="J337" s="6"/>
-      <c r="K337" s="6"/>
+      <c r="J337" s="13"/>
+      <c r="K337" s="13"/>
       <c r="L337" s="8"/>
       <c r="M337" s="9"/>
       <c r="N337" s="14"/>
@@ -8264,8 +8221,8 @@
       <c r="G338" s="12"/>
       <c r="H338" s="12"/>
       <c r="I338" s="12"/>
-      <c r="J338" s="13"/>
-      <c r="K338" s="13"/>
+      <c r="J338" s="6"/>
+      <c r="K338" s="6"/>
       <c r="L338" s="8"/>
       <c r="M338" s="9"/>
       <c r="N338" s="14"/>
@@ -8283,8 +8240,8 @@
       <c r="G339" s="12"/>
       <c r="H339" s="12"/>
       <c r="I339" s="12"/>
-      <c r="J339" s="6"/>
-      <c r="K339" s="6"/>
+      <c r="J339" s="13"/>
+      <c r="K339" s="13"/>
       <c r="L339" s="8"/>
       <c r="M339" s="9"/>
       <c r="N339" s="14"/>
@@ -8336,7 +8293,7 @@
       <c r="C342" s="8"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
-      <c r="F342" s="15"/>
+      <c r="F342" s="11"/>
       <c r="G342" s="12"/>
       <c r="H342" s="12"/>
       <c r="I342" s="12"/>
@@ -8355,7 +8312,7 @@
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
-      <c r="F343" s="11"/>
+      <c r="F343" s="15"/>
       <c r="G343" s="12"/>
       <c r="H343" s="12"/>
       <c r="I343" s="12"/>
@@ -8393,7 +8350,7 @@
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
-      <c r="F345" s="15"/>
+      <c r="F345" s="11"/>
       <c r="G345" s="12"/>
       <c r="H345" s="12"/>
       <c r="I345" s="12"/>
@@ -8450,7 +8407,7 @@
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
-      <c r="F348" s="11"/>
+      <c r="F348" s="15"/>
       <c r="G348" s="12"/>
       <c r="H348" s="12"/>
       <c r="I348" s="12"/>
@@ -8469,7 +8426,7 @@
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
-      <c r="F349" s="15"/>
+      <c r="F349" s="11"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
       <c r="I349" s="12"/>
@@ -8488,7 +8445,7 @@
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
-      <c r="F350" s="11"/>
+      <c r="F350" s="15"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
       <c r="I350" s="12"/>
@@ -8526,7 +8483,7 @@
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
-      <c r="F352" s="15"/>
+      <c r="F352" s="11"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
       <c r="I352" s="12"/>
@@ -8583,7 +8540,7 @@
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
-      <c r="F355" s="11"/>
+      <c r="F355" s="15"/>
       <c r="G355" s="12"/>
       <c r="H355" s="12"/>
       <c r="I355" s="12"/>
@@ -8602,7 +8559,7 @@
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
-      <c r="F356" s="15"/>
+      <c r="F356" s="11"/>
       <c r="G356" s="12"/>
       <c r="H356" s="12"/>
       <c r="I356" s="12"/>
@@ -8697,7 +8654,7 @@
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
-      <c r="F361" s="11"/>
+      <c r="F361" s="15"/>
       <c r="G361" s="12"/>
       <c r="H361" s="12"/>
       <c r="I361" s="12"/>
@@ -8716,7 +8673,7 @@
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
-      <c r="F362" s="15"/>
+      <c r="F362" s="11"/>
       <c r="G362" s="12"/>
       <c r="H362" s="12"/>
       <c r="I362" s="12"/>
@@ -8735,7 +8692,7 @@
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
-      <c r="F363" s="11"/>
+      <c r="F363" s="15"/>
       <c r="G363" s="12"/>
       <c r="H363" s="12"/>
       <c r="I363" s="12"/>
@@ -8754,7 +8711,7 @@
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
-      <c r="F364" s="15"/>
+      <c r="F364" s="11"/>
       <c r="G364" s="12"/>
       <c r="H364" s="12"/>
       <c r="I364" s="12"/>
@@ -8830,7 +8787,7 @@
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
-      <c r="F368" s="11"/>
+      <c r="F368" s="15"/>
       <c r="G368" s="12"/>
       <c r="H368" s="12"/>
       <c r="I368" s="12"/>
@@ -8925,7 +8882,7 @@
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
-      <c r="F373" s="15"/>
+      <c r="F373" s="11"/>
       <c r="G373" s="12"/>
       <c r="H373" s="12"/>
       <c r="I373" s="12"/>
@@ -8944,7 +8901,7 @@
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
-      <c r="F374" s="11"/>
+      <c r="F374" s="15"/>
       <c r="G374" s="12"/>
       <c r="H374" s="12"/>
       <c r="I374" s="12"/>
@@ -8963,7 +8920,7 @@
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
-      <c r="F375" s="15"/>
+      <c r="F375" s="11"/>
       <c r="G375" s="12"/>
       <c r="H375" s="12"/>
       <c r="I375" s="12"/>
@@ -9001,7 +8958,7 @@
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
-      <c r="F377" s="11"/>
+      <c r="F377" s="15"/>
       <c r="G377" s="12"/>
       <c r="H377" s="12"/>
       <c r="I377" s="12"/>
@@ -9096,7 +9053,7 @@
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
-      <c r="F382" s="15"/>
+      <c r="F382" s="11"/>
       <c r="G382" s="12"/>
       <c r="H382" s="12"/>
       <c r="I382" s="12"/>
@@ -9134,7 +9091,7 @@
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
-      <c r="F384" s="11"/>
+      <c r="F384" s="15"/>
       <c r="G384" s="12"/>
       <c r="H384" s="12"/>
       <c r="I384" s="12"/>
@@ -9153,7 +9110,7 @@
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
-      <c r="F385" s="15"/>
+      <c r="F385" s="11"/>
       <c r="G385" s="12"/>
       <c r="H385" s="12"/>
       <c r="I385" s="12"/>
@@ -9191,7 +9148,7 @@
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
-      <c r="F387" s="11"/>
+      <c r="F387" s="15"/>
       <c r="G387" s="12"/>
       <c r="H387" s="12"/>
       <c r="I387" s="12"/>
@@ -9210,7 +9167,7 @@
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
-      <c r="F388" s="15"/>
+      <c r="F388" s="11"/>
       <c r="G388" s="12"/>
       <c r="H388" s="12"/>
       <c r="I388" s="12"/>
@@ -9229,7 +9186,7 @@
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
-      <c r="F389" s="11"/>
+      <c r="F389" s="15"/>
       <c r="G389" s="12"/>
       <c r="H389" s="12"/>
       <c r="I389" s="12"/>
@@ -9248,7 +9205,7 @@
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
-      <c r="F390" s="15"/>
+      <c r="F390" s="11"/>
       <c r="G390" s="12"/>
       <c r="H390" s="12"/>
       <c r="I390" s="12"/>
@@ -9269,7 +9226,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="11"/>
       <c r="G391" s="12"/>
-      <c r="H391" s="12"/>
+      <c r="H391" s="8"/>
       <c r="I391" s="12"/>
       <c r="J391" s="13"/>
       <c r="K391" s="13"/>
@@ -9402,7 +9359,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="11"/>
       <c r="G398" s="12"/>
-      <c r="H398" s="8"/>
+      <c r="H398" s="12"/>
       <c r="I398" s="12"/>
       <c r="J398" s="13"/>
       <c r="K398" s="13"/>
@@ -9421,7 +9378,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="11"/>
       <c r="G399" s="12"/>
-      <c r="H399" s="12"/>
+      <c r="H399" s="8"/>
       <c r="I399" s="12"/>
       <c r="J399" s="13"/>
       <c r="K399" s="13"/>
@@ -9457,9 +9414,9 @@
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
-      <c r="F401" s="11"/>
+      <c r="F401" s="15"/>
       <c r="G401" s="12"/>
-      <c r="H401" s="8"/>
+      <c r="H401" s="12"/>
       <c r="I401" s="12"/>
       <c r="J401" s="13"/>
       <c r="K401" s="13"/>
@@ -9471,18 +9428,18 @@
       <c r="Q401" s="14"/>
     </row>
     <row r="402" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A402" s="8"/>
-      <c r="B402" s="8"/>
-      <c r="C402" s="8"/>
-      <c r="D402" s="8"/>
-      <c r="E402" s="8"/>
-      <c r="F402" s="15"/>
-      <c r="G402" s="12"/>
-      <c r="H402" s="12"/>
-      <c r="I402" s="12"/>
-      <c r="J402" s="13"/>
-      <c r="K402" s="13"/>
-      <c r="L402" s="8"/>
+      <c r="A402" s="3"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="7"/>
+      <c r="H402" s="7"/>
+      <c r="I402" s="4"/>
+      <c r="J402" s="8"/>
+      <c r="K402" s="8"/>
+      <c r="L402" s="4"/>
       <c r="M402" s="9"/>
       <c r="N402" s="14"/>
       <c r="O402" s="14"/>
@@ -9492,8 +9449,8 @@
     <row r="403" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="3"/>
       <c r="B403" s="4"/>
-      <c r="C403" s="5"/>
-      <c r="D403" s="5"/>
+      <c r="C403" s="10"/>
+      <c r="D403" s="10"/>
       <c r="E403" s="4"/>
       <c r="F403" s="6"/>
       <c r="G403" s="7"/>
@@ -9511,8 +9468,8 @@
     <row r="404" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="3"/>
       <c r="B404" s="4"/>
-      <c r="C404" s="10"/>
-      <c r="D404" s="10"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
       <c r="E404" s="4"/>
       <c r="F404" s="6"/>
       <c r="G404" s="7"/>
@@ -9530,8 +9487,8 @@
     <row r="405" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="3"/>
       <c r="B405" s="4"/>
-      <c r="C405" s="5"/>
-      <c r="D405" s="5"/>
+      <c r="C405" s="10"/>
+      <c r="D405" s="10"/>
       <c r="E405" s="4"/>
       <c r="F405" s="6"/>
       <c r="G405" s="7"/>
@@ -9549,8 +9506,8 @@
     <row r="406" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="3"/>
       <c r="B406" s="4"/>
-      <c r="C406" s="10"/>
-      <c r="D406" s="10"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
       <c r="E406" s="4"/>
       <c r="F406" s="6"/>
       <c r="G406" s="7"/>
@@ -9587,8 +9544,8 @@
     <row r="408" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="3"/>
       <c r="B408" s="4"/>
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
+      <c r="C408" s="10"/>
+      <c r="D408" s="10"/>
       <c r="E408" s="4"/>
       <c r="F408" s="6"/>
       <c r="G408" s="7"/>
@@ -9606,8 +9563,8 @@
     <row r="409" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="3"/>
       <c r="B409" s="4"/>
-      <c r="C409" s="10"/>
-      <c r="D409" s="10"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
       <c r="E409" s="4"/>
       <c r="F409" s="6"/>
       <c r="G409" s="7"/>
@@ -9622,29 +9579,14 @@
       <c r="P409" s="14"/>
       <c r="Q409" s="14"/>
     </row>
-    <row r="410" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A410" s="3"/>
-      <c r="B410" s="4"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="4"/>
-      <c r="F410" s="6"/>
-      <c r="G410" s="7"/>
-      <c r="H410" s="7"/>
-      <c r="I410" s="4"/>
-      <c r="J410" s="8"/>
-      <c r="K410" s="8"/>
-      <c r="L410" s="4"/>
-      <c r="M410" s="9"/>
-      <c r="N410" s="14"/>
-      <c r="O410" s="14"/>
-      <c r="P410" s="14"/>
-      <c r="Q410" s="14"/>
+    <row r="410" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J410" s="14"/>
+      <c r="K410" s="14"/>
+      <c r="L410" s="17"/>
     </row>
     <row r="411" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="J411" s="14"/>
       <c r="K411" s="14"/>
-      <c r="L411" s="17"/>
     </row>
     <row r="412" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="J412" s="14"/>
@@ -10982,18 +10924,14 @@
       <c r="J745" s="14"/>
       <c r="K745" s="14"/>
     </row>
-    <row r="746" spans="10:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="J746" s="14"/>
-      <c r="K746" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M410" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M410">
-      <sortCondition ref="E1:E410"/>
+  <autoFilter ref="A1:M409" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M409">
+      <sortCondition ref="E1:E409"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M746">
-    <sortCondition ref="B1:B746"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M745">
+    <sortCondition ref="B1:B745"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metadata/raw_sample_metadata.xlsx
+++ b/metadata/raw_sample_metadata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f19994348ecc0c8c/Documents/GitHub/uwa_darwins_daisy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C105FB3D-B416-4836-8163-E80CB2C7B1FE}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EBFF4F-97FD-4253-B4BE-1602B0FF9359}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 Sample Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S1 Sample Overview'!$A$1:$L$395</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="151">
   <si>
     <t>sampleID</t>
   </si>
@@ -988,13 +989,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="30.1796875" customWidth="1"/>
     <col min="6" max="7" width="21.81640625" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
@@ -1048,7 +1049,7 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -9878,4 +9879,725 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C780105-662E-4378-AD5C-205B679FD5B2}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2">
+        <v>-0.284111</v>
+      </c>
+      <c r="E2">
+        <v>-90.553805999999994</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3">
+        <v>-0.23161100000000001</v>
+      </c>
+      <c r="E3">
+        <v>-90.756305999999995</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4">
+        <v>-0.28941699999999998</v>
+      </c>
+      <c r="E4">
+        <v>-90.574278000000007</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>-0.84669399999999995</v>
+      </c>
+      <c r="E5">
+        <v>-91.021917000000002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>-0.19053100000000001</v>
+      </c>
+      <c r="E6">
+        <v>-91.295896999999997</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>-0.89441700000000002</v>
+      </c>
+      <c r="E7">
+        <v>-91.002055999999996</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>-0.60638899999999996</v>
+      </c>
+      <c r="E8">
+        <v>-90.67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>-0.560083</v>
+      </c>
+      <c r="E9">
+        <v>-90.533305999999996</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>-0.74463900000000005</v>
+      </c>
+      <c r="E10">
+        <v>-90.272806000000003</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>-0.57919399999999999</v>
+      </c>
+      <c r="E11">
+        <v>-90.173000000000002</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>-0.69469400000000003</v>
+      </c>
+      <c r="E12">
+        <v>-90.196721999999994</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>-0.75430600000000003</v>
+      </c>
+      <c r="E13">
+        <v>-90.424110999999996</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>-0.60155599999999998</v>
+      </c>
+      <c r="E14">
+        <v>-90.535194000000004</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>-0.53922199999999998</v>
+      </c>
+      <c r="E15">
+        <v>-90.317110999999997</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>-0.73944399999999999</v>
+      </c>
+      <c r="E16">
+        <v>-90.265833000000001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>-0.73777800000000004</v>
+      </c>
+      <c r="E17">
+        <v>-90.324444</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>-0.48991699999999999</v>
+      </c>
+      <c r="E18">
+        <v>-90.280249999999995</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>-0.54666700000000001</v>
+      </c>
+      <c r="E19">
+        <v>-90.319166999999993</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20">
+        <v>-0.71294999999999997</v>
+      </c>
+      <c r="E20">
+        <v>-90.226892000000007</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21">
+        <v>-0.62416700000000003</v>
+      </c>
+      <c r="E21">
+        <v>-90.383888999999996</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22">
+        <v>-0.80444400000000005</v>
+      </c>
+      <c r="E22">
+        <v>-90.041667000000004</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>0.54157200000000005</v>
+      </c>
+      <c r="E23">
+        <v>-90.741054000000005</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>0.57333299999999998</v>
+      </c>
+      <c r="E24">
+        <v>-90.764388999999994</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>-0.79338900000000001</v>
+      </c>
+      <c r="E25">
+        <v>-89.335471999999996</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>-0.77961100000000005</v>
+      </c>
+      <c r="E26">
+        <v>-89.411360999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>-0.715028</v>
+      </c>
+      <c r="E27">
+        <v>-89.388750000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>-0.69566700000000004</v>
+      </c>
+      <c r="E28">
+        <v>-89.300944000000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29">
+        <v>-0.81861099999999998</v>
+      </c>
+      <c r="E29">
+        <v>-89.353333000000006</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30">
+        <v>-0.901111</v>
+      </c>
+      <c r="E30">
+        <v>-89.439722000000003</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>-0.93027800000000005</v>
+      </c>
+      <c r="E31">
+        <v>-89.608056000000005</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32">
+        <v>-0.71166700000000005</v>
+      </c>
+      <c r="E32">
+        <v>-89.247500000000002</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33">
+        <v>-1.2252780000000001</v>
+      </c>
+      <c r="E33">
+        <v>-90.427778000000004</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>-1.282778</v>
+      </c>
+      <c r="E34">
+        <v>-90.491388999999998</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35">
+        <v>-1.291944</v>
+      </c>
+      <c r="E35">
+        <v>-90.453056000000004</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metadata/raw_sample_metadata.xlsx
+++ b/metadata/raw_sample_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f19994348ecc0c8c/Documents/GitHub/uwa_darwins_daisy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EBFF4F-97FD-4253-B4BE-1602B0FF9359}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{61D53B89-ACC9-B949-A960-2A8792D0D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA02457-D8A3-4AAC-862A-50A82EC22E5F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 Sample Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="152">
   <si>
     <t>sampleID</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Habitat</t>
   </si>
   <si>
-    <t xml:space="preserve">climate </t>
-  </si>
-  <si>
     <t>Accession number</t>
   </si>
   <si>
@@ -520,6 +517,12 @@
   </si>
   <si>
     <t>island_group</t>
+  </si>
+  <si>
+    <t>Isla Eden</t>
+  </si>
+  <si>
+    <t>Climate</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -765,6 +766,8 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,10 +989,10 @@
   <dimension ref="A1:P731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1038,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1050,19 +1053,19 @@
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="D2" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>140</v>
+      <c r="E2" s="30" t="s">
+        <v>139</v>
       </c>
       <c r="F2" s="15">
         <v>36194</v>
@@ -1077,13 +1080,13 @@
         <v>15.0345</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -1092,19 +1095,19 @@
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="8">
         <v>3</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="15">
         <v>36191</v>
@@ -1119,13 +1122,13 @@
         <v>14.4917</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="L3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -1134,19 +1137,19 @@
     </row>
     <row r="4" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="30" t="s">
         <v>143</v>
       </c>
+      <c r="B4" s="28" t="s">
+        <v>142</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="15">
         <v>36194</v>
@@ -1161,13 +1164,13 @@
         <v>15.2166</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -1176,19 +1179,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>16</v>
+      <c r="E5" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="15">
         <v>36201</v>
@@ -1203,11 +1206,11 @@
         <v>14.186400000000001</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1216,19 +1219,19 @@
     </row>
     <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>16</v>
+      <c r="E6" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="15">
         <v>36197</v>
@@ -1243,13 +1246,13 @@
         <v>15.3705</v>
       </c>
       <c r="J6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1258,19 +1261,19 @@
     </row>
     <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>16</v>
+      <c r="E7" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="15">
         <v>36202</v>
@@ -1285,13 +1288,13 @@
         <v>15.742000000000001</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="L7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1300,19 +1303,19 @@
     </row>
     <row r="8" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="15">
         <v>38033</v>
@@ -1327,30 +1330,30 @@
         <v>16.421600000000002</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>31</v>
+      <c r="E9" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="F9" s="15">
         <v>36194</v>
@@ -1365,13 +1368,13 @@
         <v>17.276199999999999</v>
       </c>
       <c r="J9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -1380,19 +1383,19 @@
     </row>
     <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D10" s="8">
         <v>4</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="15">
         <v>36186</v>
@@ -1407,30 +1410,30 @@
         <v>14.088800000000001</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="D11" s="8">
         <v>4</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="15">
         <v>36197</v>
@@ -1445,13 +1448,13 @@
         <v>15.8088</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1460,19 +1463,19 @@
     </row>
     <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="8">
         <v>4</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="15">
         <v>36197</v>
@@ -1487,13 +1490,13 @@
         <v>15.5015</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
@@ -1502,19 +1505,19 @@
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D13" s="8">
         <v>4</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="15">
         <v>36304</v>
@@ -1529,13 +1532,13 @@
         <v>14.967700000000001</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -1544,19 +1547,19 @@
     </row>
     <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="15">
         <v>36304</v>
@@ -1571,13 +1574,13 @@
         <v>17.547499999999999</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -1586,19 +1589,19 @@
     </row>
     <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="8">
         <v>4</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="15">
         <v>36175</v>
@@ -1613,13 +1616,13 @@
         <v>15.2605</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1628,19 +1631,19 @@
     </row>
     <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="8">
         <v>4</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="15">
         <v>35810</v>
@@ -1655,13 +1658,13 @@
         <v>14.5246</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -1670,19 +1673,19 @@
     </row>
     <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8">
         <v>4</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="15">
         <v>35809</v>
@@ -1697,13 +1700,13 @@
         <v>13.123100000000001</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -1712,19 +1715,19 @@
     </row>
     <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="8">
         <v>4</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="15">
         <v>35810</v>
@@ -1739,13 +1742,13 @@
         <v>13.773899999999999</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -1754,19 +1757,19 @@
     </row>
     <row r="19" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="8">
         <v>4</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="15">
         <v>35810</v>
@@ -1781,13 +1784,13 @@
         <v>15.8598</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -1796,19 +1799,19 @@
     </row>
     <row r="20" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="15">
         <v>36921</v>
@@ -1823,13 +1826,13 @@
         <v>13.0764</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -1838,19 +1841,19 @@
     </row>
     <row r="21" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="15">
         <v>36185</v>
@@ -1865,30 +1868,30 @@
         <v>13.7662</v>
       </c>
       <c r="J21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="L21" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>103</v>
+      <c r="E22" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="F22" s="15">
         <v>36306</v>
@@ -1903,13 +1906,13 @@
         <v>15.8622</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
@@ -1918,19 +1921,19 @@
     </row>
     <row r="23" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>51</v>
+      <c r="E23" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="F23" s="15">
         <v>36536</v>
@@ -1945,13 +1948,13 @@
         <v>15.1455</v>
       </c>
       <c r="J23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="L23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -1960,19 +1963,19 @@
     </row>
     <row r="24" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>51</v>
+      <c r="E24" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="F24" s="15">
         <v>36541</v>
@@ -1987,13 +1990,13 @@
         <v>15.824199999999999</v>
       </c>
       <c r="J24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="L24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
@@ -2002,19 +2005,19 @@
     </row>
     <row r="25" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D25" s="8">
         <v>6</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="15">
         <v>36177</v>
@@ -2029,30 +2032,30 @@
         <v>15.845800000000001</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8">
         <v>6</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="15">
         <v>36177</v>
@@ -2067,30 +2070,30 @@
         <v>14.029199999999999</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8">
         <v>6</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="15">
         <v>36180</v>
@@ -2105,30 +2108,30 @@
         <v>14.459199999999999</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="L27" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D28" s="8">
         <v>6</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="15">
         <v>36181</v>
@@ -2143,30 +2146,30 @@
         <v>12.325200000000001</v>
       </c>
       <c r="J28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="L28" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D29" s="8">
         <v>6</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="15">
         <v>36182</v>
@@ -2181,30 +2184,30 @@
         <v>13.813700000000001</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="8">
         <v>6</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="15">
         <v>35820</v>
@@ -2219,11 +2222,11 @@
         <v>13.2997</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -2232,19 +2235,19 @@
     </row>
     <row r="31" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="D31" s="8">
         <v>6</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="15">
         <v>35821</v>
@@ -2259,13 +2262,13 @@
         <v>14.261100000000001</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
@@ -2274,19 +2277,19 @@
     </row>
     <row r="32" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8">
         <v>6</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="15">
         <v>35822</v>
@@ -2301,13 +2304,13 @@
         <v>12.0222</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
@@ -2316,19 +2319,19 @@
     </row>
     <row r="33" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>146</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="D33" s="8">
         <v>5</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>22</v>
+      <c r="E33" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="F33" s="15">
         <v>35815</v>
@@ -2343,13 +2346,13 @@
         <v>13.6873</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
@@ -2358,19 +2361,19 @@
     </row>
     <row r="34" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="8">
         <v>5</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>22</v>
+      <c r="E34" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="F34" s="15">
         <v>35816</v>
@@ -2385,13 +2388,13 @@
         <v>12.360900000000001</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
@@ -2400,19 +2403,19 @@
     </row>
     <row r="35" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="8">
         <v>5</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>22</v>
+      <c r="E35" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="F35" s="15">
         <v>35816</v>
@@ -2427,13 +2430,13 @@
         <v>14.399699999999999</v>
       </c>
       <c r="J35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="L35" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -9878,6 +9881,7 @@
     <sortCondition ref="B1:B731"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9919,13 +9923,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2">
         <v>-0.284111</v>
@@ -9934,18 +9938,18 @@
         <v>-90.553805999999994</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>-0.23161100000000001</v>
@@ -9954,18 +9958,18 @@
         <v>-90.756305999999995</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4">
         <v>-0.28941699999999998</v>
@@ -9974,18 +9978,18 @@
         <v>-90.574278000000007</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>-0.84669399999999995</v>
@@ -9994,18 +9998,18 @@
         <v>-91.021917000000002</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>-0.19053100000000001</v>
@@ -10014,18 +10018,18 @@
         <v>-91.295896999999997</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>-0.89441700000000002</v>
@@ -10034,18 +10038,18 @@
         <v>-91.002055999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>-0.60638899999999996</v>
@@ -10054,18 +10058,18 @@
         <v>-90.67</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>-0.560083</v>
@@ -10074,18 +10078,18 @@
         <v>-90.533305999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>-0.74463900000000005</v>
@@ -10094,18 +10098,18 @@
         <v>-90.272806000000003</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>-0.57919399999999999</v>
@@ -10114,18 +10118,18 @@
         <v>-90.173000000000002</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>-0.69469400000000003</v>
@@ -10134,18 +10138,18 @@
         <v>-90.196721999999994</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <v>-0.75430600000000003</v>
@@ -10154,18 +10158,18 @@
         <v>-90.424110999999996</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>-0.60155599999999998</v>
@@ -10174,18 +10178,18 @@
         <v>-90.535194000000004</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>-0.53922199999999998</v>
@@ -10194,18 +10198,18 @@
         <v>-90.317110999999997</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>-0.73944399999999999</v>
@@ -10214,18 +10218,18 @@
         <v>-90.265833000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>-0.73777800000000004</v>
@@ -10234,18 +10238,18 @@
         <v>-90.324444</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>-0.48991699999999999</v>
@@ -10254,18 +10258,18 @@
         <v>-90.280249999999995</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>-0.54666700000000001</v>
@@ -10274,18 +10278,18 @@
         <v>-90.319166999999993</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20">
         <v>-0.71294999999999997</v>
@@ -10294,18 +10298,18 @@
         <v>-90.226892000000007</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21">
         <v>-0.62416700000000003</v>
@@ -10314,18 +10318,18 @@
         <v>-90.383888999999996</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>-0.80444400000000005</v>
@@ -10334,18 +10338,18 @@
         <v>-90.041667000000004</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>0.54157200000000005</v>
@@ -10354,18 +10358,18 @@
         <v>-90.741054000000005</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>0.57333299999999998</v>
@@ -10374,18 +10378,18 @@
         <v>-90.764388999999994</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <v>-0.79338900000000001</v>
@@ -10394,18 +10398,18 @@
         <v>-89.335471999999996</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <v>-0.77961100000000005</v>
@@ -10414,18 +10418,18 @@
         <v>-89.411360999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>-0.715028</v>
@@ -10434,18 +10438,18 @@
         <v>-89.388750000000002</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>-0.69566700000000004</v>
@@ -10454,18 +10458,18 @@
         <v>-89.300944000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>-0.81861099999999998</v>
@@ -10474,18 +10478,18 @@
         <v>-89.353333000000006</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>-0.901111</v>
@@ -10494,18 +10498,18 @@
         <v>-89.439722000000003</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>-0.93027800000000005</v>
@@ -10514,18 +10518,18 @@
         <v>-89.608056000000005</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32">
         <v>-0.71166700000000005</v>
@@ -10534,18 +10538,18 @@
         <v>-89.247500000000002</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33">
         <v>-1.2252780000000001</v>
@@ -10554,18 +10558,18 @@
         <v>-90.427778000000004</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>-1.282778</v>
@@ -10574,18 +10578,18 @@
         <v>-90.491388999999998</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35">
         <v>-1.291944</v>
@@ -10594,7 +10598,7 @@
         <v>-90.453056000000004</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
